--- a/销售入离职时间.xlsx
+++ b/销售入离职时间.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="27040" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="412">
   <si>
     <t>销售ID</t>
   </si>
@@ -1259,12 +1259,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,7 +1295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,33 +1304,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1338,7 +1317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1359,6 +1338,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1376,24 +1371,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1401,15 +1387,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1423,13 +1415,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1437,9 +1431,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1454,19 +1447,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,91 +1495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,7 +1525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,7 +1543,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1604,37 +1621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,17 +1641,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1668,30 +1664,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1711,6 +1683,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1726,22 +1709,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1750,152 +1743,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1914,57 +1907,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2265,16 +2261,19 @@
   <dimension ref="A1:F886"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="6" width="11.5833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.5865384615385" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.7884615384615" style="2" customWidth="1"/>
+    <col min="4" max="6" width="11.5865384615385" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2294,15 +2293,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="4">
         <v>1852</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
+      <c r="C2" s="6">
+        <v>44002</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -2314,7 +2313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="3" s="2" customFormat="1" spans="1:6">
       <c r="A3" s="4">
         <v>2362</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="4">
         <v>2471</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="4">
         <v>2868</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="4">
         <v>1443</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="4">
         <v>1795</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="4">
         <v>1881</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="4">
         <v>2277</v>
       </c>
@@ -2446,7 +2445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="4">
         <v>2398</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="4">
         <v>2470</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="4">
         <v>1758</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="4">
         <v>2023</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="14" s="2" customFormat="1" spans="1:6">
       <c r="A14" s="4">
         <v>2045</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="15" s="2" customFormat="1" spans="1:6">
       <c r="A15" s="4">
         <v>2178</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="4">
         <v>2267</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="17" s="2" customFormat="1" spans="1:6">
       <c r="A17" s="4">
         <v>3163</v>
       </c>
@@ -2598,7 +2597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="4">
         <v>1411</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="19" s="2" customFormat="1" spans="1:6">
       <c r="A19" s="4">
         <v>1431</v>
       </c>
@@ -2638,7 +2637,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="4">
         <v>1565</v>
       </c>
@@ -2658,7 +2657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="21" s="2" customFormat="1" spans="1:6">
       <c r="A21" s="4">
         <v>1846</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="4">
         <v>2236</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="23" s="2" customFormat="1" spans="1:6">
       <c r="A23" s="4">
         <v>1529</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="4">
         <v>1535</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="25" s="2" customFormat="1" spans="1:6">
       <c r="A25" s="4">
         <v>1571</v>
       </c>
@@ -2754,7 +2753,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="4">
         <v>1576</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="27" s="2" customFormat="1" spans="1:6">
       <c r="A27" s="4">
         <v>1585</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="4">
         <v>1628</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="29" s="2" customFormat="1" spans="1:6">
       <c r="A29" s="4">
         <v>2020</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="4">
         <v>2250</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="31" s="2" customFormat="1" spans="1:6">
       <c r="A31" s="4">
         <v>2418</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="4">
         <v>2904</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="33" s="2" customFormat="1" spans="1:6">
       <c r="A33" s="4">
         <v>3057</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="4">
         <v>1381</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="35" s="2" customFormat="1" spans="1:6">
       <c r="A35" s="4">
         <v>1603</v>
       </c>
@@ -2944,7 +2943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="4">
         <v>1738</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="37" s="2" customFormat="1" spans="1:6">
       <c r="A37" s="4">
         <v>2135</v>
       </c>
@@ -2982,7 +2981,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="4">
         <v>3092</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="39" s="2" customFormat="1" spans="1:6">
       <c r="A39" s="4">
         <v>3105</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="4">
         <v>1496</v>
       </c>
@@ -3038,7 +3037,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="41" s="2" customFormat="1" spans="1:6">
       <c r="A41" s="4">
         <v>2070</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="4">
         <v>2238</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="43" s="2" customFormat="1" spans="1:6">
       <c r="A43" s="4">
         <v>2311</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="4">
         <v>2379</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="45" s="2" customFormat="1" spans="1:6">
       <c r="A45" s="4">
         <v>2381</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="4">
         <v>1303</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="47" s="2" customFormat="1" spans="1:6">
       <c r="A47" s="4">
         <v>1369</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="4">
         <v>1377</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="49" s="2" customFormat="1" spans="1:6">
       <c r="A49" s="4">
         <v>1440</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="4">
         <v>1539</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="51" s="2" customFormat="1" spans="1:6">
       <c r="A51" s="4">
         <v>1605</v>
       </c>
@@ -3252,7 +3251,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="52" s="2" customFormat="1" spans="1:6">
       <c r="A52" s="4">
         <v>1652</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="53" s="2" customFormat="1" spans="1:6">
       <c r="A53" s="4">
         <v>1800</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="4">
         <v>1883</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="55" s="2" customFormat="1" spans="1:6">
       <c r="A55" s="4">
         <v>1908</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="56" s="2" customFormat="1" spans="1:6">
       <c r="A56" s="4">
         <v>2055</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="57" s="2" customFormat="1" spans="1:6">
       <c r="A57" s="4">
         <v>2059</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="58" s="2" customFormat="1" spans="1:6">
       <c r="A58" s="4">
         <v>2363</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="59" s="2" customFormat="1" spans="1:6">
       <c r="A59" s="4">
         <v>2461</v>
       </c>
@@ -3400,7 +3399,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="60" s="2" customFormat="1" spans="1:6">
       <c r="A60" s="4">
         <v>2499</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="61" s="2" customFormat="1" spans="1:6">
       <c r="A61" s="4">
         <v>2608</v>
       </c>
@@ -3440,7 +3439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="62" s="2" customFormat="1" spans="1:6">
       <c r="A62" s="4">
         <v>2651</v>
       </c>
@@ -3460,7 +3459,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="63" s="2" customFormat="1" spans="1:6">
       <c r="A63" s="4">
         <v>1350</v>
       </c>
@@ -3480,7 +3479,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="64" s="2" customFormat="1" spans="1:6">
       <c r="A64" s="4">
         <v>1365</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="65" s="2" customFormat="1" spans="1:6">
       <c r="A65" s="4">
         <v>1428</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="66" s="2" customFormat="1" spans="1:6">
       <c r="A66" s="4">
         <v>1457</v>
       </c>
@@ -3536,7 +3535,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="67" s="2" customFormat="1" spans="1:6">
       <c r="A67" s="4">
         <v>1884</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="68" s="2" customFormat="1" spans="1:6">
       <c r="A68" s="4">
         <v>2042</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="69" s="2" customFormat="1" spans="1:6">
       <c r="A69" s="4">
         <v>2082</v>
       </c>
@@ -3596,7 +3595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="70" s="2" customFormat="1" spans="1:6">
       <c r="A70" s="4">
         <v>2338</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="71" s="2" customFormat="1" spans="1:6">
       <c r="A71" s="4">
         <v>2565</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="72" s="2" customFormat="1" spans="1:6">
       <c r="A72" s="4">
         <v>2568</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="73" s="2" customFormat="1" spans="1:6">
       <c r="A73" s="4">
         <v>1342</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="74" s="2" customFormat="1" spans="1:6">
       <c r="A74" s="4">
         <v>1459</v>
       </c>
@@ -3692,7 +3691,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="75" s="2" customFormat="1" spans="1:6">
       <c r="A75" s="4">
         <v>1490</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="76" s="2" customFormat="1" spans="1:6">
       <c r="A76" s="4">
         <v>2017</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="77" s="2" customFormat="1" spans="1:6">
       <c r="A77" s="4">
         <v>2147</v>
       </c>
@@ -3750,7 +3749,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="78" s="2" customFormat="1" spans="1:6">
       <c r="A78" s="4">
         <v>2305</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="79" s="2" customFormat="1" spans="1:6">
       <c r="A79" s="4">
         <v>2456</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="80" s="2" customFormat="1" spans="1:6">
       <c r="A80" s="4">
         <v>2494</v>
       </c>
@@ -3808,7 +3807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="81" s="2" customFormat="1" spans="1:6">
       <c r="A81" s="4">
         <v>2852</v>
       </c>
@@ -3828,7 +3827,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="82" s="2" customFormat="1" spans="1:6">
       <c r="A82" s="4">
         <v>3020</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="83" s="2" customFormat="1" spans="1:6">
       <c r="A83" s="4">
         <v>3082</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="84" s="2" customFormat="1" spans="1:6">
       <c r="A84" s="4">
         <v>3087</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="85" s="2" customFormat="1" spans="1:6">
       <c r="A85" s="4">
         <v>3095</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="86" s="2" customFormat="1" spans="1:6">
       <c r="A86" s="4">
         <v>1404</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="87" s="2" customFormat="1" spans="1:6">
       <c r="A87" s="4">
         <v>1442</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="88" s="2" customFormat="1" spans="1:6">
       <c r="A88" s="4">
         <v>1464</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="89" s="2" customFormat="1" spans="1:6">
       <c r="A89" s="4">
         <v>1514</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="90" s="2" customFormat="1" spans="1:6">
       <c r="A90" s="4">
         <v>1742</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="91" s="2" customFormat="1" spans="1:6">
       <c r="A91" s="4">
         <v>2314</v>
       </c>
@@ -4020,7 +4019,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="92" s="2" customFormat="1" spans="1:6">
       <c r="A92" s="4">
         <v>2317</v>
       </c>
@@ -4038,7 +4037,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="93" s="2" customFormat="1" spans="1:6">
       <c r="A93" s="4">
         <v>2426</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="94" s="2" customFormat="1" spans="1:6">
       <c r="A94" s="4">
         <v>2689</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="95" s="2" customFormat="1" spans="1:6">
       <c r="A95" s="4">
         <v>3032</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="96" s="2" customFormat="1" spans="1:6">
       <c r="A96" s="4">
         <v>3033</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="97" s="2" customFormat="1" spans="1:6">
       <c r="A97" s="4">
         <v>3119</v>
       </c>
@@ -4128,7 +4127,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="98" s="2" customFormat="1" spans="1:6">
       <c r="A98" s="4">
         <v>1737</v>
       </c>
@@ -4148,7 +4147,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="99" s="2" customFormat="1" spans="1:6">
       <c r="A99" s="4">
         <v>1868</v>
       </c>
@@ -4168,7 +4167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="100" s="2" customFormat="1" spans="1:6">
       <c r="A100" s="4">
         <v>2264</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="101" s="2" customFormat="1" spans="1:6">
       <c r="A101" s="4">
         <v>2454</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="102" s="2" customFormat="1" spans="1:6">
       <c r="A102" s="4">
         <v>2564</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="103" s="2" customFormat="1" spans="1:6">
       <c r="A103" s="4">
         <v>2902</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="104" s="2" customFormat="1" spans="1:6">
       <c r="A104" s="4">
         <v>3019</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="105" s="2" customFormat="1" spans="1:6">
       <c r="A105" s="4">
         <v>3029</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="106" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="106" s="2" customFormat="1" spans="1:6">
       <c r="A106" s="4">
         <v>3081</v>
       </c>
@@ -4300,7 +4299,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="107" s="2" customFormat="1" spans="1:6">
       <c r="A107" s="4">
         <v>1646</v>
       </c>
@@ -4320,7 +4319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="108" s="2" customFormat="1" spans="1:6">
       <c r="A108" s="4">
         <v>2218</v>
       </c>
@@ -4340,7 +4339,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="109" s="2" customFormat="1" spans="1:6">
       <c r="A109" s="4">
         <v>2307</v>
       </c>
@@ -4358,7 +4357,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="110" s="2" customFormat="1" spans="1:6">
       <c r="A110" s="4">
         <v>2370</v>
       </c>
@@ -4378,7 +4377,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="111" s="2" customFormat="1" spans="1:6">
       <c r="A111" s="4">
         <v>2854</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="112" s="2" customFormat="1" spans="1:6">
       <c r="A112" s="4">
         <v>1567</v>
       </c>
@@ -4416,7 +4415,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="113" s="2" customFormat="1" spans="1:6">
       <c r="A113" s="4">
         <v>1701</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="114" s="2" customFormat="1" spans="1:6">
       <c r="A114" s="4">
         <v>1833</v>
       </c>
@@ -4456,7 +4455,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="115" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="115" s="2" customFormat="1" spans="1:6">
       <c r="A115" s="4">
         <v>1980</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="116" s="2" customFormat="1" spans="1:6">
       <c r="A116" s="4">
         <v>2024</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="117" s="2" customFormat="1" spans="1:6">
       <c r="A117" s="4">
         <v>2200</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="118" s="2" customFormat="1" spans="1:6">
       <c r="A118" s="4">
         <v>2257</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="119" s="2" customFormat="1" spans="1:6">
       <c r="A119" s="4">
         <v>2583</v>
       </c>
@@ -4548,7 +4547,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="120" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="120" s="2" customFormat="1" spans="1:6">
       <c r="A120" s="4">
         <v>2706</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="121" s="2" customFormat="1" spans="1:6">
       <c r="A121" s="4">
         <v>2707</v>
       </c>
@@ -4584,7 +4583,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="122" s="2" customFormat="1" spans="1:6">
       <c r="A122" s="4">
         <v>3035</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="123" s="2" customFormat="1" spans="1:6">
       <c r="A123" s="4">
         <v>3048</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="124" s="2" customFormat="1" spans="1:6">
       <c r="A124" s="4">
         <v>3064</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="125" s="2" customFormat="1" spans="1:6">
       <c r="A125" s="4">
         <v>3122</v>
       </c>
@@ -4658,7 +4657,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="126" s="2" customFormat="1" spans="1:6">
       <c r="A126" s="4">
         <v>1318</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="127" s="2" customFormat="1" spans="1:6">
       <c r="A127" s="4">
         <v>1745</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="128" s="2" customFormat="1" spans="1:6">
       <c r="A128" s="4">
         <v>1811</v>
       </c>
@@ -4718,7 +4717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="129" s="2" customFormat="1" spans="1:6">
       <c r="A129" s="4">
         <v>2260</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="130" s="2" customFormat="1" spans="1:6">
       <c r="A130" s="4">
         <v>2349</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="131" s="2" customFormat="1" spans="1:6">
       <c r="A131" s="4">
         <v>3045</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="132" s="2" customFormat="1" spans="1:6">
       <c r="A132" s="4">
         <v>1523</v>
       </c>
@@ -4796,7 +4795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="133" s="2" customFormat="1" spans="1:6">
       <c r="A133" s="4">
         <v>1721</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="134" s="2" customFormat="1" spans="1:6">
       <c r="A134" s="4">
         <v>1982</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="135" s="2" customFormat="1" spans="1:6">
       <c r="A135" s="4">
         <v>2097</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="136" s="2" customFormat="1" spans="1:6">
       <c r="A136" s="4">
         <v>2158</v>
       </c>
@@ -4874,7 +4873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="137" s="2" customFormat="1" spans="1:6">
       <c r="A137" s="4">
         <v>2247</v>
       </c>
@@ -4892,7 +4891,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="138" s="2" customFormat="1" spans="1:6">
       <c r="A138" s="4">
         <v>2414</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="139" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="139" s="2" customFormat="1" spans="1:6">
       <c r="A139" s="4">
         <v>2617</v>
       </c>
@@ -4932,7 +4931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="140" s="2" customFormat="1" spans="1:6">
       <c r="A140" s="4">
         <v>3023</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="141" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="141" s="2" customFormat="1" spans="1:6">
       <c r="A141" s="4">
         <v>3150</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="142" s="2" customFormat="1" spans="1:6">
       <c r="A142" s="4">
         <v>1324</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="143" s="2" customFormat="1" spans="1:6">
       <c r="A143" s="4">
         <v>1352</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="144" s="2" customFormat="1" spans="1:6">
       <c r="A144" s="4">
         <v>1532</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="145" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="145" s="2" customFormat="1" spans="1:6">
       <c r="A145" s="4">
         <v>1534</v>
       </c>
@@ -5042,7 +5041,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="146" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="146" s="2" customFormat="1" spans="1:6">
       <c r="A146" s="4">
         <v>1570</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="147" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="147" s="2" customFormat="1" spans="1:6">
       <c r="A147" s="4">
         <v>1715</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="148" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="148" s="2" customFormat="1" spans="1:6">
       <c r="A148" s="4">
         <v>1793</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="149" s="2" customFormat="1" spans="1:6">
       <c r="A149" s="4">
         <v>1873</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="150" s="2" customFormat="1" spans="1:6">
       <c r="A150" s="4">
         <v>2188</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="151" s="2" customFormat="1" spans="1:6">
       <c r="A151" s="4">
         <v>2213</v>
       </c>
@@ -5156,7 +5155,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="152" s="2" customFormat="1" spans="1:6">
       <c r="A152" s="4">
         <v>2406</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="153" s="2" customFormat="1" spans="1:6">
       <c r="A153" s="4">
         <v>2460</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="154" s="2" customFormat="1" spans="1:6">
       <c r="A154" s="4">
         <v>2571</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="155" s="2" customFormat="1" spans="1:6">
       <c r="A155" s="4">
         <v>2598</v>
       </c>
@@ -5232,7 +5231,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="156" s="2" customFormat="1" spans="1:6">
       <c r="A156" s="4">
         <v>2976</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="157" s="2" customFormat="1" spans="1:6">
       <c r="A157" s="4">
         <v>1461</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="158" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="158" s="2" customFormat="1" spans="1:6">
       <c r="A158" s="4">
         <v>1467</v>
       </c>
@@ -5288,7 +5287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="159" s="2" customFormat="1" spans="1:6">
       <c r="A159" s="4">
         <v>1569</v>
       </c>
@@ -5308,7 +5307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="160" s="2" customFormat="1" spans="1:6">
       <c r="A160" s="4">
         <v>1820</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="161" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="161" s="2" customFormat="1" spans="1:6">
       <c r="A161" s="4">
         <v>1879</v>
       </c>
@@ -5346,7 +5345,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="162" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="162" s="2" customFormat="1" spans="1:6">
       <c r="A162" s="4">
         <v>2438</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="163" s="2" customFormat="1" spans="1:6">
       <c r="A163" s="4">
         <v>2476</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="164" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="164" s="2" customFormat="1" spans="1:6">
       <c r="A164" s="4">
         <v>2572</v>
       </c>
@@ -5402,7 +5401,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="165" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="165" s="2" customFormat="1" spans="1:6">
       <c r="A165" s="4">
         <v>2903</v>
       </c>
@@ -5420,7 +5419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="166" s="2" customFormat="1" spans="1:6">
       <c r="A166" s="4">
         <v>3101</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="167" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="167" s="2" customFormat="1" spans="1:6">
       <c r="A167" s="4">
         <v>1470</v>
       </c>
@@ -5458,7 +5457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="168" s="2" customFormat="1" spans="1:6">
       <c r="A168" s="4">
         <v>1588</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="169" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="169" s="2" customFormat="1" spans="1:6">
       <c r="A169" s="4">
         <v>1614</v>
       </c>
@@ -5498,7 +5497,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="170" s="2" customFormat="1" spans="1:6">
       <c r="A170" s="4">
         <v>1629</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="171" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="171" s="2" customFormat="1" spans="1:6">
       <c r="A171" s="4">
         <v>1648</v>
       </c>
@@ -5538,7 +5537,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="172" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="172" s="2" customFormat="1" spans="1:6">
       <c r="A172" s="4">
         <v>1683</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="173" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="173" s="2" customFormat="1" spans="1:6">
       <c r="A173" s="4">
         <v>2112</v>
       </c>
@@ -5578,7 +5577,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="174" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="174" s="2" customFormat="1" spans="1:6">
       <c r="A174" s="4">
         <v>2157</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="175" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="175" s="2" customFormat="1" spans="1:6">
       <c r="A175" s="4">
         <v>2578</v>
       </c>
@@ -5614,7 +5613,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="176" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="176" s="2" customFormat="1" spans="1:6">
       <c r="A176" s="4">
         <v>2629</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="177" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="177" s="2" customFormat="1" spans="1:6">
       <c r="A177" s="4">
         <v>1322</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="178" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="178" s="2" customFormat="1" spans="1:6">
       <c r="A178" s="4">
         <v>1413</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="179" s="2" customFormat="1" spans="1:6">
       <c r="A179" s="4">
         <v>2050</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="180" s="2" customFormat="1" spans="1:6">
       <c r="A180" s="4">
         <v>2069</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="181" s="2" customFormat="1" spans="1:6">
       <c r="A181" s="4">
         <v>2098</v>
       </c>
@@ -5728,7 +5727,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="182" s="2" customFormat="1" spans="1:6">
       <c r="A182" s="4">
         <v>2380</v>
       </c>
@@ -5746,7 +5745,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="183" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="183" s="2" customFormat="1" spans="1:6">
       <c r="A183" s="4">
         <v>2449</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="184" s="2" customFormat="1" spans="1:6">
       <c r="A184" s="4">
         <v>2988</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="185" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="185" s="2" customFormat="1" spans="1:6">
       <c r="A185" s="4">
         <v>3051</v>
       </c>
@@ -5802,7 +5801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="186" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="186" s="2" customFormat="1" spans="1:6">
       <c r="A186" s="4">
         <v>3103</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="187" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="187" s="2" customFormat="1" spans="1:6">
       <c r="A187" s="4">
         <v>1337</v>
       </c>
@@ -5840,7 +5839,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="188" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="188" s="2" customFormat="1" spans="1:6">
       <c r="A188" s="4">
         <v>1547</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="189" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="189" s="2" customFormat="1" spans="1:6">
       <c r="A189" s="4">
         <v>1752</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="190" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="190" s="2" customFormat="1" spans="1:6">
       <c r="A190" s="4">
         <v>1789</v>
       </c>
@@ -5896,7 +5895,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="191" s="2" customFormat="1" spans="1:6">
       <c r="A191" s="4">
         <v>1907</v>
       </c>
@@ -5916,7 +5915,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="192" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="192" s="2" customFormat="1" spans="1:6">
       <c r="A192" s="4">
         <v>2041</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="193" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="193" s="2" customFormat="1" spans="1:6">
       <c r="A193" s="4">
         <v>3040</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="194" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="194" s="2" customFormat="1" spans="1:6">
       <c r="A194" s="4">
         <v>1487</v>
       </c>
@@ -5976,7 +5975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="195" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="195" s="2" customFormat="1" spans="1:6">
       <c r="A195" s="4">
         <v>1778</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="196" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="196" s="2" customFormat="1" spans="1:6">
       <c r="A196" s="4">
         <v>1850</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="197" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="197" s="2" customFormat="1" spans="1:6">
       <c r="A197" s="4">
         <v>1882</v>
       </c>
@@ -6036,7 +6035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="198" s="2" customFormat="1" spans="1:6">
       <c r="A198" s="4">
         <v>1890</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="199" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="199" s="2" customFormat="1" spans="1:6">
       <c r="A199" s="4">
         <v>1959</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="200" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="200" s="2" customFormat="1" spans="1:6">
       <c r="A200" s="4">
         <v>2092</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="201" s="2" customFormat="1" spans="1:6">
       <c r="A201" s="4">
         <v>2103</v>
       </c>
@@ -6114,7 +6113,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="202" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="202" s="2" customFormat="1" spans="1:6">
       <c r="A202" s="4">
         <v>2184</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="203" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="203" s="2" customFormat="1" spans="1:6">
       <c r="A203" s="4">
         <v>2265</v>
       </c>
@@ -6152,7 +6151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="204" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="204" s="2" customFormat="1" spans="1:6">
       <c r="A204" s="4">
         <v>2315</v>
       </c>
@@ -6170,7 +6169,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="205" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="205" s="2" customFormat="1" spans="1:6">
       <c r="A205" s="4">
         <v>2372</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="206" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="206" s="2" customFormat="1" spans="1:6">
       <c r="A206" s="4">
         <v>2411</v>
       </c>
@@ -6208,7 +6207,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="207" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="207" s="2" customFormat="1" spans="1:6">
       <c r="A207" s="4">
         <v>2590</v>
       </c>
@@ -6226,7 +6225,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="208" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="208" s="2" customFormat="1" spans="1:6">
       <c r="A208" s="4">
         <v>2591</v>
       </c>
@@ -6246,7 +6245,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="209" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="209" s="2" customFormat="1" spans="1:6">
       <c r="A209" s="4">
         <v>2643</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="210" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="210" s="2" customFormat="1" spans="1:6">
       <c r="A210" s="4">
         <v>1458</v>
       </c>
@@ -6284,7 +6283,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="211" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="211" s="2" customFormat="1" spans="1:6">
       <c r="A211" s="4">
         <v>1477</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="212" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="212" s="2" customFormat="1" spans="1:6">
       <c r="A212" s="4">
         <v>1837</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="213" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="213" s="2" customFormat="1" spans="1:6">
       <c r="A213" s="4">
         <v>2186</v>
       </c>
@@ -6342,7 +6341,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="214" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="214" s="2" customFormat="1" spans="1:6">
       <c r="A214" s="4">
         <v>2255</v>
       </c>
@@ -6362,7 +6361,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="215" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="215" s="2" customFormat="1" spans="1:6">
       <c r="A215" s="4">
         <v>3078</v>
       </c>
@@ -6380,7 +6379,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="216" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="216" s="2" customFormat="1" spans="1:6">
       <c r="A216" s="4">
         <v>1312</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="217" s="2" customFormat="1" spans="1:6">
       <c r="A217" s="4">
         <v>1465</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="218" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="218" s="2" customFormat="1" spans="1:6">
       <c r="A218" s="4">
         <v>1785</v>
       </c>
@@ -6438,7 +6437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="219" s="2" customFormat="1" spans="1:6">
       <c r="A219" s="4">
         <v>1787</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="220" s="2" customFormat="1" spans="1:6">
       <c r="A220" s="4">
         <v>2848</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="221" s="2" customFormat="1" spans="1:6">
       <c r="A221" s="4">
         <v>1391</v>
       </c>
@@ -6496,7 +6495,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="222" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="222" s="2" customFormat="1" spans="1:6">
       <c r="A222" s="4">
         <v>1491</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="223" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="223" s="2" customFormat="1" spans="1:6">
       <c r="A223" s="4">
         <v>1847</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="224" s="2" customFormat="1" spans="1:6">
       <c r="A224" s="4">
         <v>2038</v>
       </c>
@@ -6552,7 +6551,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="225" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="225" s="2" customFormat="1" spans="1:6">
       <c r="A225" s="4">
         <v>2970</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="226" s="2" customFormat="1" spans="1:6">
       <c r="A226" s="4">
         <v>3037</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="227" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="227" s="2" customFormat="1" spans="1:6">
       <c r="A227" s="4">
         <v>1441</v>
       </c>
@@ -6608,7 +6607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="228" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="228" s="2" customFormat="1" spans="1:6">
       <c r="A228" s="4">
         <v>1609</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="229" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="229" s="2" customFormat="1" spans="1:6">
       <c r="A229" s="4">
         <v>1626</v>
       </c>
@@ -6648,7 +6647,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="230" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="230" s="2" customFormat="1" spans="1:6">
       <c r="A230" s="4">
         <v>1693</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="231" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="231" s="2" customFormat="1" spans="1:6">
       <c r="A231" s="4">
         <v>1987</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="232" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="232" s="2" customFormat="1" spans="1:6">
       <c r="A232" s="4">
         <v>2133</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="233" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="233" s="2" customFormat="1" spans="1:6">
       <c r="A233" s="4">
         <v>2190</v>
       </c>
@@ -6724,7 +6723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="234" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="234" s="2" customFormat="1" spans="1:6">
       <c r="A234" s="4">
         <v>1484</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="235" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="235" s="2" customFormat="1" spans="1:6">
       <c r="A235" s="4">
         <v>1542</v>
       </c>
@@ -6762,7 +6761,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="236" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="236" s="2" customFormat="1" spans="1:6">
       <c r="A236" s="4">
         <v>1610</v>
       </c>
@@ -6780,7 +6779,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="237" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="237" s="2" customFormat="1" spans="1:6">
       <c r="A237" s="4">
         <v>1809</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="238" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="238" s="2" customFormat="1" spans="1:6">
       <c r="A238" s="4">
         <v>2219</v>
       </c>
@@ -6818,7 +6817,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="239" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="239" s="2" customFormat="1" spans="1:6">
       <c r="A239" s="4">
         <v>2378</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="240" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="240" s="2" customFormat="1" spans="1:6">
       <c r="A240" s="4">
         <v>2624</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="241" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="241" s="2" customFormat="1" spans="1:6">
       <c r="A241" s="4">
         <v>2675</v>
       </c>
@@ -6872,7 +6871,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="242" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="242" s="2" customFormat="1" spans="1:6">
       <c r="A242" s="4">
         <v>3089</v>
       </c>
@@ -6890,7 +6889,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="243" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="243" s="2" customFormat="1" spans="1:6">
       <c r="A243" s="4">
         <v>1414</v>
       </c>
@@ -6908,7 +6907,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="244" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="244" s="2" customFormat="1" spans="1:6">
       <c r="A244" s="4">
         <v>1888</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="245" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="245" s="2" customFormat="1" spans="1:6">
       <c r="A245" s="4">
         <v>2040</v>
       </c>
@@ -6946,7 +6945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="246" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="246" s="2" customFormat="1" spans="1:6">
       <c r="A246" s="4">
         <v>2058</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="247" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="247" s="2" customFormat="1" spans="1:6">
       <c r="A247" s="4">
         <v>2096</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="248" s="2" customFormat="1" spans="1:6">
       <c r="A248" s="4">
         <v>2323</v>
       </c>
@@ -7002,7 +7001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="249" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="249" s="2" customFormat="1" spans="1:6">
       <c r="A249" s="4">
         <v>2327</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="250" s="2" customFormat="1" spans="1:6">
       <c r="A250" s="4">
         <v>2407</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="251" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="251" s="2" customFormat="1" spans="1:6">
       <c r="A251" s="4">
         <v>2660</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="252" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="252" s="2" customFormat="1" spans="1:6">
       <c r="A252" s="4">
         <v>3112</v>
       </c>
@@ -7078,7 +7077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="253" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="253" s="2" customFormat="1" spans="1:6">
       <c r="A253" s="4">
         <v>1384</v>
       </c>
@@ -7098,7 +7097,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="254" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="254" s="2" customFormat="1" spans="1:6">
       <c r="A254" s="4">
         <v>1389</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="255" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="255" s="2" customFormat="1" spans="1:6">
       <c r="A255" s="4">
         <v>1471</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="256" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="256" s="2" customFormat="1" spans="1:6">
       <c r="A256" s="4">
         <v>1494</v>
       </c>
@@ -7156,7 +7155,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="257" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="257" s="2" customFormat="1" spans="1:6">
       <c r="A257" s="4">
         <v>1562</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="258" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="258" s="2" customFormat="1" spans="1:6">
       <c r="A258" s="4">
         <v>1607</v>
       </c>
@@ -7194,7 +7193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="259" s="2" customFormat="1" spans="1:6">
       <c r="A259" s="4">
         <v>1684</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="260" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="260" s="2" customFormat="1" spans="1:6">
       <c r="A260" s="4">
         <v>1739</v>
       </c>
@@ -7232,7 +7231,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="261" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="261" s="2" customFormat="1" spans="1:6">
       <c r="A261" s="4">
         <v>1760</v>
       </c>
@@ -7252,7 +7251,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="262" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="262" s="2" customFormat="1" spans="1:6">
       <c r="A262" s="4">
         <v>2300</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="263" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="263" s="2" customFormat="1" spans="1:6">
       <c r="A263" s="4">
         <v>2475</v>
       </c>
@@ -7292,7 +7291,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="264" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="264" s="2" customFormat="1" spans="1:6">
       <c r="A264" s="4">
         <v>2642</v>
       </c>
@@ -7310,7 +7309,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="265" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="265" s="2" customFormat="1" spans="1:6">
       <c r="A265" s="4">
         <v>3077</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="266" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="266" s="2" customFormat="1" spans="1:6">
       <c r="A266" s="4">
         <v>3079</v>
       </c>
@@ -7346,7 +7345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="267" s="2" customFormat="1" spans="1:6">
       <c r="A267" s="4">
         <v>3108</v>
       </c>
@@ -7364,7 +7363,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="268" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="268" s="2" customFormat="1" spans="1:6">
       <c r="A268" s="4">
         <v>1436</v>
       </c>
@@ -7384,7 +7383,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="269" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="269" s="2" customFormat="1" spans="1:6">
       <c r="A269" s="4">
         <v>1437</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="270" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="270" s="2" customFormat="1" spans="1:6">
       <c r="A270" s="4">
         <v>1554</v>
       </c>
@@ -7422,7 +7421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="271" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="271" s="2" customFormat="1" spans="1:6">
       <c r="A271" s="4">
         <v>1592</v>
       </c>
@@ -7440,7 +7439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="272" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="272" s="2" customFormat="1" spans="1:6">
       <c r="A272" s="4">
         <v>1855</v>
       </c>
@@ -7458,7 +7457,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="273" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="273" s="2" customFormat="1" spans="1:6">
       <c r="A273" s="4">
         <v>2148</v>
       </c>
@@ -7478,7 +7477,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="274" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="274" s="2" customFormat="1" spans="1:6">
       <c r="A274" s="4">
         <v>2227</v>
       </c>
@@ -7496,7 +7495,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="275" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="275" s="2" customFormat="1" spans="1:6">
       <c r="A275" s="4">
         <v>2644</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="276" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="276" s="2" customFormat="1" spans="1:6">
       <c r="A276" s="4">
         <v>1654</v>
       </c>
@@ -7534,7 +7533,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="277" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="277" s="2" customFormat="1" spans="1:6">
       <c r="A277" s="4">
         <v>1781</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="278" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="278" s="2" customFormat="1" spans="1:6">
       <c r="A278" s="4">
         <v>2033</v>
       </c>
@@ -7572,7 +7571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="279" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="279" s="2" customFormat="1" spans="1:6">
       <c r="A279" s="4">
         <v>2053</v>
       </c>
@@ -7592,7 +7591,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="280" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="280" s="2" customFormat="1" spans="1:6">
       <c r="A280" s="4">
         <v>2587</v>
       </c>
@@ -7610,7 +7609,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="281" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="281" s="2" customFormat="1" spans="1:6">
       <c r="A281" s="4">
         <v>3027</v>
       </c>
@@ -7628,7 +7627,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="282" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="282" s="2" customFormat="1" spans="1:6">
       <c r="A282" s="4">
         <v>3118</v>
       </c>
@@ -7646,7 +7645,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="283" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="283" s="2" customFormat="1" spans="1:6">
       <c r="A283" s="4">
         <v>1348</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="284" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="284" s="2" customFormat="1" spans="1:6">
       <c r="A284" s="4">
         <v>1367</v>
       </c>
@@ -7684,7 +7683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="285" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="285" s="2" customFormat="1" spans="1:6">
       <c r="A285" s="4">
         <v>1422</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="286" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="286" s="2" customFormat="1" spans="1:6">
       <c r="A286" s="4">
         <v>1425</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="287" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="287" s="2" customFormat="1" spans="1:6">
       <c r="A287" s="4">
         <v>1551</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="288" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="288" s="2" customFormat="1" spans="1:6">
       <c r="A288" s="4">
         <v>1619</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="289" s="2" customFormat="1" spans="1:6">
       <c r="A289" s="4">
         <v>1707</v>
       </c>
@@ -7782,7 +7781,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="290" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="290" s="2" customFormat="1" spans="1:6">
       <c r="A290" s="4">
         <v>1818</v>
       </c>
@@ -7802,7 +7801,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="291" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="291" s="2" customFormat="1" spans="1:6">
       <c r="A291" s="4">
         <v>2259</v>
       </c>
@@ -7820,7 +7819,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="292" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="292" s="2" customFormat="1" spans="1:6">
       <c r="A292" s="4">
         <v>2699</v>
       </c>
@@ -7838,7 +7837,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="293" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="293" s="2" customFormat="1" spans="1:6">
       <c r="A293" s="4">
         <v>2897</v>
       </c>
@@ -7856,7 +7855,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="294" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="294" s="2" customFormat="1" spans="1:6">
       <c r="A294" s="4">
         <v>3036</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="295" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="295" s="2" customFormat="1" spans="1:6">
       <c r="A295" s="4">
         <v>1360</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="296" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="296" s="2" customFormat="1" spans="1:6">
       <c r="A296" s="4">
         <v>1462</v>
       </c>
@@ -7914,7 +7913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="297" s="2" customFormat="1" spans="1:6">
       <c r="A297" s="4">
         <v>1499</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="298" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="298" s="2" customFormat="1" spans="1:6">
       <c r="A298" s="4">
         <v>1505</v>
       </c>
@@ -7952,7 +7951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="299" s="2" customFormat="1" spans="1:6">
       <c r="A299" s="4">
         <v>1566</v>
       </c>
@@ -7972,7 +7971,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="300" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="300" s="2" customFormat="1" spans="1:6">
       <c r="A300" s="4">
         <v>1688</v>
       </c>
@@ -7992,7 +7991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="301" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="301" s="2" customFormat="1" spans="1:6">
       <c r="A301" s="4">
         <v>2297</v>
       </c>
@@ -8012,7 +8011,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="302" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="302" s="2" customFormat="1" spans="1:6">
       <c r="A302" s="4">
         <v>2330</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="303" s="2" customFormat="1" spans="1:6">
       <c r="A303" s="4">
         <v>2704</v>
       </c>
@@ -8048,7 +8047,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="304" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="304" s="2" customFormat="1" spans="1:6">
       <c r="A304" s="4">
         <v>2973</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="305" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="305" s="2" customFormat="1" spans="1:6">
       <c r="A305" s="4">
         <v>3068</v>
       </c>
@@ -8088,7 +8087,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="306" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="306" s="2" customFormat="1" spans="1:6">
       <c r="A306" s="4">
         <v>1631</v>
       </c>
@@ -8108,7 +8107,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="307" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="307" s="2" customFormat="1" spans="1:6">
       <c r="A307" s="4">
         <v>1723</v>
       </c>
@@ -8128,7 +8127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="308" s="2" customFormat="1" spans="1:6">
       <c r="A308" s="4">
         <v>1808</v>
       </c>
@@ -8146,7 +8145,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="309" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="309" s="2" customFormat="1" spans="1:6">
       <c r="A309" s="4">
         <v>1851</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="310" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="310" s="2" customFormat="1" spans="1:6">
       <c r="A310" s="4">
         <v>1875</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="311" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="311" s="2" customFormat="1" spans="1:6">
       <c r="A311" s="4">
         <v>2146</v>
       </c>
@@ -8206,7 +8205,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="312" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="312" s="2" customFormat="1" spans="1:6">
       <c r="A312" s="4">
         <v>2251</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="313" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="313" s="2" customFormat="1" spans="1:6">
       <c r="A313" s="4">
         <v>1803</v>
       </c>
@@ -8246,7 +8245,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="314" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="314" s="2" customFormat="1" spans="1:6">
       <c r="A314" s="4">
         <v>2028</v>
       </c>
@@ -8266,7 +8265,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="315" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="315" s="2" customFormat="1" spans="1:6">
       <c r="A315" s="4">
         <v>2056</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="316" s="2" customFormat="1" spans="1:6">
       <c r="A316" s="4">
         <v>2085</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="317" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="317" s="2" customFormat="1" spans="1:6">
       <c r="A317" s="4">
         <v>2272</v>
       </c>
@@ -8324,7 +8323,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="318" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="318" s="2" customFormat="1" spans="1:6">
       <c r="A318" s="4">
         <v>3145</v>
       </c>
@@ -8342,7 +8341,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="319" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="319" s="2" customFormat="1" spans="1:6">
       <c r="A319" s="4">
         <v>1513</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="320" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="320" s="2" customFormat="1" spans="1:6">
       <c r="A320" s="4">
         <v>1823</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="321" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="321" s="2" customFormat="1" spans="1:6">
       <c r="A321" s="4">
         <v>2350</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="322" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="322" s="2" customFormat="1" spans="1:6">
       <c r="A322" s="4">
         <v>2415</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="323" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="323" s="2" customFormat="1" spans="1:6">
       <c r="A323" s="4">
         <v>2663</v>
       </c>
@@ -8438,7 +8437,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="324" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="324" s="2" customFormat="1" spans="1:6">
       <c r="A324" s="4">
         <v>2863</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="325" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="325" s="2" customFormat="1" spans="1:6">
       <c r="A325" s="4">
         <v>3055</v>
       </c>
@@ -8474,7 +8473,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="326" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="326" s="2" customFormat="1" spans="1:6">
       <c r="A326" s="4">
         <v>1600</v>
       </c>
@@ -8492,7 +8491,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="327" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="327" s="2" customFormat="1" spans="1:6">
       <c r="A327" s="4">
         <v>1679</v>
       </c>
@@ -8512,7 +8511,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="328" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="328" s="2" customFormat="1" spans="1:6">
       <c r="A328" s="4">
         <v>1757</v>
       </c>
@@ -8532,7 +8531,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="329" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="329" s="2" customFormat="1" spans="1:6">
       <c r="A329" s="4">
         <v>1973</v>
       </c>
@@ -8550,7 +8549,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="330" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="330" s="2" customFormat="1" spans="1:6">
       <c r="A330" s="4">
         <v>2018</v>
       </c>
@@ -8570,7 +8569,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="331" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="331" s="2" customFormat="1" spans="1:6">
       <c r="A331" s="4">
         <v>2463</v>
       </c>
@@ -8588,7 +8587,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="332" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="332" s="2" customFormat="1" spans="1:6">
       <c r="A332" s="4">
         <v>2990</v>
       </c>
@@ -8606,7 +8605,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="333" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="333" s="2" customFormat="1" spans="1:6">
       <c r="A333" s="4">
         <v>3083</v>
       </c>
@@ -8624,7 +8623,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="334" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="334" s="2" customFormat="1" spans="1:6">
       <c r="A334" s="4">
         <v>1357</v>
       </c>
@@ -8642,7 +8641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="335" s="2" customFormat="1" spans="1:6">
       <c r="A335" s="4">
         <v>1511</v>
       </c>
@@ -8662,7 +8661,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="336" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="336" s="2" customFormat="1" spans="1:6">
       <c r="A336" s="4">
         <v>1624</v>
       </c>
@@ -8682,7 +8681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="337" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="337" s="2" customFormat="1" spans="1:6">
       <c r="A337" s="4">
         <v>1782</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="338" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="338" s="2" customFormat="1" spans="1:6">
       <c r="A338" s="4">
         <v>1986</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="339" s="2" customFormat="1" spans="1:6">
       <c r="A339" s="4">
         <v>2299</v>
       </c>
@@ -8742,7 +8741,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="340" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="340" s="2" customFormat="1" spans="1:6">
       <c r="A340" s="4">
         <v>2331</v>
       </c>
@@ -8760,7 +8759,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="341" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="341" s="2" customFormat="1" spans="1:6">
       <c r="A341" s="4">
         <v>2872</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="342" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="342" s="2" customFormat="1" spans="1:6">
       <c r="A342" s="4">
         <v>1317</v>
       </c>
@@ -8798,7 +8797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="343" s="2" customFormat="1" spans="1:6">
       <c r="A343" s="4">
         <v>1338</v>
       </c>
@@ -8816,7 +8815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="344" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="344" s="2" customFormat="1" spans="1:6">
       <c r="A344" s="4">
         <v>1343</v>
       </c>
@@ -8836,7 +8835,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="345" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="345" s="2" customFormat="1" spans="1:6">
       <c r="A345" s="4">
         <v>1454</v>
       </c>
@@ -8856,7 +8855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="346" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="346" s="2" customFormat="1" spans="1:6">
       <c r="A346" s="4">
         <v>1674</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="347" s="2" customFormat="1" spans="1:6">
       <c r="A347" s="4">
         <v>2035</v>
       </c>
@@ -8894,7 +8893,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="348" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="348" s="2" customFormat="1" spans="1:6">
       <c r="A348" s="4">
         <v>2113</v>
       </c>
@@ -8914,7 +8913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="349" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="349" s="2" customFormat="1" spans="1:6">
       <c r="A349" s="4">
         <v>2137</v>
       </c>
@@ -8932,7 +8931,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="350" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="350" s="2" customFormat="1" spans="1:6">
       <c r="A350" s="4">
         <v>2152</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="351" s="2" customFormat="1" spans="1:6">
       <c r="A351" s="4">
         <v>2194</v>
       </c>
@@ -8970,7 +8969,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="352" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="352" s="2" customFormat="1" spans="1:6">
       <c r="A352" s="4">
         <v>1486</v>
       </c>
@@ -8990,7 +8989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="353" s="2" customFormat="1" spans="1:6">
       <c r="A353" s="4">
         <v>1537</v>
       </c>
@@ -9010,7 +9009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="354" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="354" s="2" customFormat="1" spans="1:6">
       <c r="A354" s="4">
         <v>1711</v>
       </c>
@@ -9030,7 +9029,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="355" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="355" s="2" customFormat="1" spans="1:6">
       <c r="A355" s="4">
         <v>1735</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="356" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="356" s="2" customFormat="1" spans="1:6">
       <c r="A356" s="4">
         <v>1784</v>
       </c>
@@ -9070,7 +9069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="357" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="357" s="2" customFormat="1" spans="1:6">
       <c r="A357" s="4">
         <v>2021</v>
       </c>
@@ -9090,7 +9089,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="358" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="358" s="2" customFormat="1" spans="1:6">
       <c r="A358" s="4">
         <v>2030</v>
       </c>
@@ -9108,7 +9107,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="359" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="359" s="2" customFormat="1" spans="1:6">
       <c r="A359" s="4">
         <v>2066</v>
       </c>
@@ -9126,7 +9125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="360" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="360" s="2" customFormat="1" spans="1:6">
       <c r="A360" s="4">
         <v>2399</v>
       </c>
@@ -9144,7 +9143,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="361" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="361" s="2" customFormat="1" spans="1:6">
       <c r="A361" s="4">
         <v>2495</v>
       </c>
@@ -9164,7 +9163,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="362" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="362" s="2" customFormat="1" spans="1:6">
       <c r="A362" s="4">
         <v>3052</v>
       </c>
@@ -9182,7 +9181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="363" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="363" s="2" customFormat="1" spans="1:6">
       <c r="A363" s="4">
         <v>3058</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="364" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="364" s="2" customFormat="1" spans="1:6">
       <c r="A364" s="4">
         <v>1368</v>
       </c>
@@ -9218,7 +9217,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="365" s="2" customFormat="1" spans="1:6">
       <c r="A365" s="4">
         <v>1692</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="366" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="366" s="2" customFormat="1" spans="1:6">
       <c r="A366" s="4">
         <v>1899</v>
       </c>
@@ -9256,7 +9255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="367" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="367" s="2" customFormat="1" spans="1:6">
       <c r="A367" s="4">
         <v>2019</v>
       </c>
@@ -9276,7 +9275,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="368" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="368" s="2" customFormat="1" spans="1:6">
       <c r="A368" s="4">
         <v>2079</v>
       </c>
@@ -9294,7 +9293,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="369" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="369" s="2" customFormat="1" spans="1:6">
       <c r="A369" s="4">
         <v>2138</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="370" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="370" s="2" customFormat="1" spans="1:6">
       <c r="A370" s="4">
         <v>1354</v>
       </c>
@@ -9334,7 +9333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="371" s="2" customFormat="1" spans="1:6">
       <c r="A371" s="4">
         <v>1489</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="372" s="2" customFormat="1" spans="1:6">
       <c r="A372" s="4">
         <v>1860</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="373" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="373" s="2" customFormat="1" spans="1:6">
       <c r="A373" s="4">
         <v>2049</v>
       </c>
@@ -9394,7 +9393,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="374" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="374" s="2" customFormat="1" spans="1:6">
       <c r="A374" s="4">
         <v>2320</v>
       </c>
@@ -9412,7 +9411,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="375" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="375" s="2" customFormat="1" spans="1:6">
       <c r="A375" s="4">
         <v>3142</v>
       </c>
@@ -9430,7 +9429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="376" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="376" s="2" customFormat="1" spans="1:6">
       <c r="A376" s="4">
         <v>1308</v>
       </c>
@@ -9450,7 +9449,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="377" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="377" s="2" customFormat="1" spans="1:6">
       <c r="A377" s="4">
         <v>1479</v>
       </c>
@@ -9470,7 +9469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="378" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="378" s="2" customFormat="1" spans="1:6">
       <c r="A378" s="4">
         <v>1669</v>
       </c>
@@ -9488,7 +9487,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="379" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="379" s="2" customFormat="1" spans="1:6">
       <c r="A379" s="4">
         <v>1694</v>
       </c>
@@ -9508,7 +9507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="380" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="380" s="2" customFormat="1" spans="1:6">
       <c r="A380" s="4">
         <v>1824</v>
       </c>
@@ -9528,7 +9527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="381" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="381" s="2" customFormat="1" spans="1:6">
       <c r="A381" s="4">
         <v>1870</v>
       </c>
@@ -9548,7 +9547,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="382" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="382" s="2" customFormat="1" spans="1:6">
       <c r="A382" s="4">
         <v>2054</v>
       </c>
@@ -9566,7 +9565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="383" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="383" s="2" customFormat="1" spans="1:6">
       <c r="A383" s="4">
         <v>2174</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="384" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="384" s="2" customFormat="1" spans="1:6">
       <c r="A384" s="4">
         <v>2346</v>
       </c>
@@ -9604,7 +9603,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="385" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="385" s="2" customFormat="1" spans="1:6">
       <c r="A385" s="4">
         <v>2480</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="386" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="386" s="2" customFormat="1" spans="1:6">
       <c r="A386" s="4">
         <v>2634</v>
       </c>
@@ -9640,7 +9639,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="387" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="387" s="2" customFormat="1" spans="1:6">
       <c r="A387" s="4">
         <v>2939</v>
       </c>
@@ -9658,7 +9657,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="388" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="388" s="2" customFormat="1" spans="1:6">
       <c r="A388" s="4">
         <v>1492</v>
       </c>
@@ -9678,7 +9677,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="389" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="389" s="2" customFormat="1" spans="1:6">
       <c r="A389" s="4">
         <v>1533</v>
       </c>
@@ -9698,7 +9697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="390" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="390" s="2" customFormat="1" spans="1:6">
       <c r="A390" s="4">
         <v>1597</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="391" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="391" s="2" customFormat="1" spans="1:6">
       <c r="A391" s="4">
         <v>2491</v>
       </c>
@@ -9736,7 +9735,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="392" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="392" s="2" customFormat="1" spans="1:6">
       <c r="A392" s="4">
         <v>3030</v>
       </c>
@@ -9754,7 +9753,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="393" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="393" s="2" customFormat="1" spans="1:6">
       <c r="A393" s="4">
         <v>3098</v>
       </c>
@@ -9772,7 +9771,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="394" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="394" s="2" customFormat="1" spans="1:6">
       <c r="A394" s="4">
         <v>3155</v>
       </c>
@@ -9790,7 +9789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="395" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="395" s="2" customFormat="1" spans="1:6">
       <c r="A395" s="4">
         <v>1395</v>
       </c>
@@ -9810,7 +9809,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="396" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="396" s="2" customFormat="1" spans="1:6">
       <c r="A396" s="4">
         <v>1819</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="397" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="397" s="2" customFormat="1" spans="1:6">
       <c r="A397" s="4">
         <v>1829</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="398" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="398" s="2" customFormat="1" spans="1:6">
       <c r="A398" s="4">
         <v>2047</v>
       </c>
@@ -9868,7 +9867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="399" s="2" customFormat="1" spans="1:6">
       <c r="A399" s="4">
         <v>2063</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="400" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="400" s="2" customFormat="1" spans="1:6">
       <c r="A400" s="4">
         <v>2091</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="401" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="401" s="2" customFormat="1" spans="1:6">
       <c r="A401" s="4">
         <v>2489</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="402" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="402" s="2" customFormat="1" spans="1:6">
       <c r="A402" s="4">
         <v>3072</v>
       </c>
@@ -9944,7 +9943,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="403" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="403" s="2" customFormat="1" spans="1:6">
       <c r="A403" s="4">
         <v>3146</v>
       </c>
@@ -9962,7 +9961,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="404" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="404" s="2" customFormat="1" spans="1:6">
       <c r="A404" s="4">
         <v>1371</v>
       </c>
@@ -9982,7 +9981,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="405" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="405" s="2" customFormat="1" spans="1:6">
       <c r="A405" s="4">
         <v>1663</v>
       </c>
@@ -10002,7 +10001,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="406" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="406" s="2" customFormat="1" spans="1:6">
       <c r="A406" s="4">
         <v>2237</v>
       </c>
@@ -10022,7 +10021,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="407" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="407" s="2" customFormat="1" spans="1:6">
       <c r="A407" s="4">
         <v>2262</v>
       </c>
@@ -10040,7 +10039,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="408" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="408" s="2" customFormat="1" spans="1:6">
       <c r="A408" s="4">
         <v>2302</v>
       </c>
@@ -10058,7 +10057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="409" s="2" customFormat="1" spans="1:6">
       <c r="A409" s="4">
         <v>2333</v>
       </c>
@@ -10076,7 +10075,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="410" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="410" s="2" customFormat="1" spans="1:6">
       <c r="A410" s="4">
         <v>1341</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="411" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="411" s="2" customFormat="1" spans="1:6">
       <c r="A411" s="4">
         <v>1591</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="412" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="412" s="2" customFormat="1" spans="1:6">
       <c r="A412" s="4">
         <v>1775</v>
       </c>
@@ -10134,7 +10133,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="413" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="413" s="2" customFormat="1" spans="1:6">
       <c r="A413" s="4">
         <v>1898</v>
       </c>
@@ -10152,7 +10151,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="414" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="414" s="2" customFormat="1" spans="1:6">
       <c r="A414" s="4">
         <v>2094</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="415" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="415" s="2" customFormat="1" spans="1:6">
       <c r="A415" s="4">
         <v>2382</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="416" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="416" s="2" customFormat="1" spans="1:6">
       <c r="A416" s="4">
         <v>2408</v>
       </c>
@@ -10210,7 +10209,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="417" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="417" s="2" customFormat="1" spans="1:6">
       <c r="A417" s="4">
         <v>2467</v>
       </c>
@@ -10230,7 +10229,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="418" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="418" s="2" customFormat="1" spans="1:6">
       <c r="A418" s="4">
         <v>2616</v>
       </c>
@@ -10250,7 +10249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="419" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="419" s="2" customFormat="1" spans="1:6">
       <c r="A419" s="4">
         <v>2691</v>
       </c>
@@ -10268,7 +10267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="420" s="2" customFormat="1" spans="1:6">
       <c r="A420" s="4">
         <v>3114</v>
       </c>
@@ -10286,7 +10285,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="421" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="421" s="2" customFormat="1" spans="1:6">
       <c r="A421" s="4">
         <v>1307</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="422" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="422" s="2" customFormat="1" spans="1:6">
       <c r="A422" s="4">
         <v>1896</v>
       </c>
@@ -10324,7 +10323,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="423" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="423" s="2" customFormat="1" spans="1:6">
       <c r="A423" s="4">
         <v>2451</v>
       </c>
@@ -10344,7 +10343,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="424" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="424" s="2" customFormat="1" spans="1:6">
       <c r="A424" s="4">
         <v>2485</v>
       </c>
@@ -10362,7 +10361,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="425" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="425" s="2" customFormat="1" spans="1:6">
       <c r="A425" s="4">
         <v>2652</v>
       </c>
@@ -10382,7 +10381,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="426" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="426" s="2" customFormat="1" spans="1:6">
       <c r="A426" s="4">
         <v>3147</v>
       </c>
@@ -10400,7 +10399,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="427" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="427" s="2" customFormat="1" spans="1:6">
       <c r="A427" s="4">
         <v>1689</v>
       </c>
@@ -10418,7 +10417,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="428" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="428" s="2" customFormat="1" spans="1:6">
       <c r="A428" s="4">
         <v>1796</v>
       </c>
@@ -10438,7 +10437,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="429" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="429" s="2" customFormat="1" spans="1:6">
       <c r="A429" s="4">
         <v>1889</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="430" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="430" s="2" customFormat="1" spans="1:6">
       <c r="A430" s="4">
         <v>2155</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="431" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="431" s="2" customFormat="1" spans="1:6">
       <c r="A431" s="4">
         <v>2304</v>
       </c>
@@ -10494,7 +10493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="432" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="432" s="2" customFormat="1" spans="1:6">
       <c r="A432" s="4">
         <v>3063</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="433" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="433" s="2" customFormat="1" spans="1:6">
       <c r="A433" s="4">
         <v>3152</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="434" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="434" s="2" customFormat="1" spans="1:6">
       <c r="A434" s="4">
         <v>3153</v>
       </c>
@@ -10552,7 +10551,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="435" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="435" s="2" customFormat="1" spans="1:6">
       <c r="A435" s="4">
         <v>1386</v>
       </c>
@@ -10572,7 +10571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="436" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="436" s="2" customFormat="1" spans="1:6">
       <c r="A436" s="4">
         <v>1388</v>
       </c>
@@ -10592,7 +10591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="437" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="437" s="2" customFormat="1" spans="1:6">
       <c r="A437" s="4">
         <v>1643</v>
       </c>
@@ -10612,7 +10611,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="438" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="438" s="2" customFormat="1" spans="1:6">
       <c r="A438" s="4">
         <v>1695</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="439" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="439" s="2" customFormat="1" spans="1:6">
       <c r="A439" s="4">
         <v>1825</v>
       </c>
@@ -10648,7 +10647,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="440" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="440" s="2" customFormat="1" spans="1:6">
       <c r="A440" s="4">
         <v>1862</v>
       </c>
@@ -10668,7 +10667,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="441" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="441" s="2" customFormat="1" spans="1:6">
       <c r="A441" s="4">
         <v>2708</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="442" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="442" s="2" customFormat="1" spans="1:6">
       <c r="A442" s="4">
         <v>1445</v>
       </c>
@@ -10706,7 +10705,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="443" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="443" s="2" customFormat="1" spans="1:6">
       <c r="A443" s="4">
         <v>1503</v>
       </c>
@@ -10726,7 +10725,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="444" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="444" s="2" customFormat="1" spans="1:6">
       <c r="A444" s="4">
         <v>1515</v>
       </c>
@@ -10744,7 +10743,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="445" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="445" s="2" customFormat="1" spans="1:6">
       <c r="A445" s="4">
         <v>1546</v>
       </c>
@@ -10764,7 +10763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="446" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="446" s="2" customFormat="1" spans="1:6">
       <c r="A446" s="4">
         <v>1617</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="447" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="447" s="2" customFormat="1" spans="1:6">
       <c r="A447" s="4">
         <v>1983</v>
       </c>
@@ -10804,7 +10803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="448" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="448" s="2" customFormat="1" spans="1:6">
       <c r="A448" s="4">
         <v>2413</v>
       </c>
@@ -10822,7 +10821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="449" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="449" s="2" customFormat="1" spans="1:6">
       <c r="A449" s="4">
         <v>2468</v>
       </c>
@@ -10840,7 +10839,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="450" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="450" s="2" customFormat="1" spans="1:6">
       <c r="A450" s="4">
         <v>2679</v>
       </c>
@@ -10858,7 +10857,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="451" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="451" s="2" customFormat="1" spans="1:6">
       <c r="A451" s="4">
         <v>2924</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="452" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="452" s="2" customFormat="1" spans="1:6">
       <c r="A452" s="4">
         <v>3133</v>
       </c>
@@ -10894,7 +10893,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="453" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="453" s="2" customFormat="1" spans="1:6">
       <c r="A453" s="4">
         <v>3138</v>
       </c>
@@ -10912,7 +10911,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="454" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="454" s="2" customFormat="1" spans="1:6">
       <c r="A454" s="4">
         <v>1606</v>
       </c>
@@ -10930,7 +10929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="455" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="455" s="2" customFormat="1" spans="1:6">
       <c r="A455" s="4">
         <v>2189</v>
       </c>
@@ -10948,7 +10947,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="456" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="456" s="2" customFormat="1" spans="1:6">
       <c r="A456" s="4">
         <v>2235</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="457" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="457" s="2" customFormat="1" spans="1:6">
       <c r="A457" s="4">
         <v>2509</v>
       </c>
@@ -10984,7 +10983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="458" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="458" s="2" customFormat="1" spans="1:6">
       <c r="A458" s="4">
         <v>2625</v>
       </c>
@@ -11002,7 +11001,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="459" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="459" s="2" customFormat="1" spans="1:6">
       <c r="A459" s="4">
         <v>2850</v>
       </c>
@@ -11022,7 +11021,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="460" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="460" s="2" customFormat="1" spans="1:6">
       <c r="A460" s="4">
         <v>2857</v>
       </c>
@@ -11042,7 +11041,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="461" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="461" s="2" customFormat="1" spans="1:6">
       <c r="A461" s="4">
         <v>1313</v>
       </c>
@@ -11062,7 +11061,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="462" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="462" s="2" customFormat="1" spans="1:6">
       <c r="A462" s="4">
         <v>1450</v>
       </c>
@@ -11082,7 +11081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="463" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="463" s="2" customFormat="1" spans="1:6">
       <c r="A463" s="4">
         <v>1475</v>
       </c>
@@ -11102,7 +11101,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="464" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="464" s="2" customFormat="1" spans="1:6">
       <c r="A464" s="4">
         <v>1480</v>
       </c>
@@ -11122,7 +11121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="465" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="465" s="2" customFormat="1" spans="1:6">
       <c r="A465" s="4">
         <v>2062</v>
       </c>
@@ -11142,7 +11141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="466" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="466" s="2" customFormat="1" spans="1:6">
       <c r="A466" s="4">
         <v>2220</v>
       </c>
@@ -11162,7 +11161,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="467" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="467" s="2" customFormat="1" spans="1:6">
       <c r="A467" s="4">
         <v>2394</v>
       </c>
@@ -11182,7 +11181,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="468" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="468" s="2" customFormat="1" spans="1:6">
       <c r="A468" s="4">
         <v>2428</v>
       </c>
@@ -11202,7 +11201,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="469" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="469" s="2" customFormat="1" spans="1:6">
       <c r="A469" s="4">
         <v>2931</v>
       </c>
@@ -11222,7 +11221,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="470" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="470" s="2" customFormat="1" spans="1:6">
       <c r="A470" s="4">
         <v>1815</v>
       </c>
@@ -11242,7 +11241,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="471" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="471" s="2" customFormat="1" spans="1:6">
       <c r="A471" s="4">
         <v>2108</v>
       </c>
@@ -11262,7 +11261,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="472" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="472" s="2" customFormat="1" spans="1:6">
       <c r="A472" s="4">
         <v>2129</v>
       </c>
@@ -11280,7 +11279,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="473" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="473" s="2" customFormat="1" spans="1:6">
       <c r="A473" s="4">
         <v>2425</v>
       </c>
@@ -11300,7 +11299,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="474" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="474" s="2" customFormat="1" spans="1:6">
       <c r="A474" s="4">
         <v>2427</v>
       </c>
@@ -11320,7 +11319,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="475" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="475" s="2" customFormat="1" spans="1:6">
       <c r="A475" s="4">
         <v>2609</v>
       </c>
@@ -11340,7 +11339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="476" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="476" s="2" customFormat="1" spans="1:6">
       <c r="A476" s="4">
         <v>3116</v>
       </c>
@@ -11358,7 +11357,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="477" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="477" s="2" customFormat="1" spans="1:6">
       <c r="A477" s="4">
         <v>3117</v>
       </c>
@@ -11376,7 +11375,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="478" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="478" s="2" customFormat="1" spans="1:6">
       <c r="A478" s="4">
         <v>1447</v>
       </c>
@@ -11396,7 +11395,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="479" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="479" s="2" customFormat="1" spans="1:6">
       <c r="A479" s="4">
         <v>1449</v>
       </c>
@@ -11416,7 +11415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="480" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="480" s="2" customFormat="1" spans="1:6">
       <c r="A480" s="4">
         <v>1493</v>
       </c>
@@ -11434,7 +11433,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="481" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="481" s="2" customFormat="1" spans="1:6">
       <c r="A481" s="4">
         <v>1501</v>
       </c>
@@ -11454,7 +11453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="482" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="482" s="2" customFormat="1" spans="1:6">
       <c r="A482" s="4">
         <v>1589</v>
       </c>
@@ -11472,7 +11471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="483" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="483" s="2" customFormat="1" spans="1:6">
       <c r="A483" s="4">
         <v>1705</v>
       </c>
@@ -11492,7 +11491,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="484" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="484" s="2" customFormat="1" spans="1:6">
       <c r="A484" s="4">
         <v>1779</v>
       </c>
@@ -11510,7 +11509,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="485" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="485" s="2" customFormat="1" spans="1:6">
       <c r="A485" s="4">
         <v>1859</v>
       </c>
@@ -11530,7 +11529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="486" s="2" customFormat="1" spans="1:6">
       <c r="A486" s="4">
         <v>2076</v>
       </c>
@@ -11548,7 +11547,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="487" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="487" s="2" customFormat="1" spans="1:6">
       <c r="A487" s="4">
         <v>2144</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="488" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="488" s="2" customFormat="1" spans="1:6">
       <c r="A488" s="4">
         <v>2167</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="489" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="489" s="2" customFormat="1" spans="1:6">
       <c r="A489" s="4">
         <v>2316</v>
       </c>
@@ -11608,7 +11607,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="490" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="490" s="2" customFormat="1" spans="1:6">
       <c r="A490" s="4">
         <v>3158</v>
       </c>
@@ -11626,7 +11625,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="491" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="491" s="2" customFormat="1" spans="1:6">
       <c r="A491" s="4">
         <v>1579</v>
       </c>
@@ -11644,7 +11643,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="492" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="492" s="2" customFormat="1" spans="1:6">
       <c r="A492" s="4">
         <v>1598</v>
       </c>
@@ -11664,7 +11663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="493" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="493" s="2" customFormat="1" spans="1:6">
       <c r="A493" s="4">
         <v>1671</v>
       </c>
@@ -11684,7 +11683,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="494" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="494" s="2" customFormat="1" spans="1:6">
       <c r="A494" s="4">
         <v>1673</v>
       </c>
@@ -11702,7 +11701,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="495" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="495" s="2" customFormat="1" spans="1:6">
       <c r="A495" s="4">
         <v>1716</v>
       </c>
@@ -11722,7 +11721,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="496" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="496" s="2" customFormat="1" spans="1:6">
       <c r="A496" s="4">
         <v>2334</v>
       </c>
@@ -11740,7 +11739,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="497" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="497" s="2" customFormat="1" spans="1:6">
       <c r="A497" s="4">
         <v>2354</v>
       </c>
@@ -11760,7 +11759,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="498" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="498" s="2" customFormat="1" spans="1:6">
       <c r="A498" s="4">
         <v>2966</v>
       </c>
@@ -11778,7 +11777,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="499" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="499" s="2" customFormat="1" spans="1:6">
       <c r="A499" s="4">
         <v>3070</v>
       </c>
@@ -11798,7 +11797,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="500" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="500" s="2" customFormat="1" spans="1:6">
       <c r="A500" s="4">
         <v>3071</v>
       </c>
@@ -11816,7 +11815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="501" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="501" s="2" customFormat="1" spans="1:6">
       <c r="A501" s="4">
         <v>1522</v>
       </c>
@@ -11836,7 +11835,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="502" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="502" s="2" customFormat="1" spans="1:6">
       <c r="A502" s="4">
         <v>1538</v>
       </c>
@@ -11854,7 +11853,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="503" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="503" s="2" customFormat="1" spans="1:6">
       <c r="A503" s="4">
         <v>1641</v>
       </c>
@@ -11872,7 +11871,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="504" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="504" s="2" customFormat="1" spans="1:6">
       <c r="A504" s="4">
         <v>1965</v>
       </c>
@@ -11890,7 +11889,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="505" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="505" s="2" customFormat="1" spans="1:6">
       <c r="A505" s="4">
         <v>2077</v>
       </c>
@@ -11910,7 +11909,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="506" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="506" s="2" customFormat="1" spans="1:6">
       <c r="A506" s="4">
         <v>2132</v>
       </c>
@@ -11928,7 +11927,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="507" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="507" s="2" customFormat="1" spans="1:6">
       <c r="A507" s="4">
         <v>2217</v>
       </c>
@@ -11948,7 +11947,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="508" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="508" s="2" customFormat="1" spans="1:6">
       <c r="A508" s="4">
         <v>2371</v>
       </c>
@@ -11966,7 +11965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="509" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="509" s="2" customFormat="1" spans="1:6">
       <c r="A509" s="4">
         <v>2638</v>
       </c>
@@ -11984,7 +11983,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="510" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="510" s="2" customFormat="1" spans="1:6">
       <c r="A510" s="4">
         <v>2955</v>
       </c>
@@ -12002,7 +12001,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="511" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="511" s="2" customFormat="1" spans="1:6">
       <c r="A511" s="4">
         <v>1703</v>
       </c>
@@ -12022,7 +12021,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="512" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="512" s="2" customFormat="1" spans="1:6">
       <c r="A512" s="4">
         <v>1887</v>
       </c>
@@ -12040,7 +12039,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="513" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="513" s="2" customFormat="1" spans="1:6">
       <c r="A513" s="4">
         <v>1903</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="514" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="514" s="2" customFormat="1" spans="1:6">
       <c r="A514" s="4">
         <v>1961</v>
       </c>
@@ -12080,7 +12079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="515" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="515" s="2" customFormat="1" spans="1:6">
       <c r="A515" s="4">
         <v>2095</v>
       </c>
@@ -12098,7 +12097,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="516" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="516" s="2" customFormat="1" spans="1:6">
       <c r="A516" s="4">
         <v>2936</v>
       </c>
@@ -12116,7 +12115,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="517" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="517" s="2" customFormat="1" spans="1:6">
       <c r="A517" s="4">
         <v>2971</v>
       </c>
@@ -12134,7 +12133,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="518" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="518" s="2" customFormat="1" spans="1:6">
       <c r="A518" s="4">
         <v>2987</v>
       </c>
@@ -12152,7 +12151,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="519" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="519" s="2" customFormat="1" spans="1:6">
       <c r="A519" s="4">
         <v>1390</v>
       </c>
@@ -12172,7 +12171,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="520" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="520" s="2" customFormat="1" spans="1:6">
       <c r="A520" s="4">
         <v>1647</v>
       </c>
@@ -12192,7 +12191,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="521" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="521" s="2" customFormat="1" spans="1:6">
       <c r="A521" s="4">
         <v>1791</v>
       </c>
@@ -12212,7 +12211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="522" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="522" s="2" customFormat="1" spans="1:6">
       <c r="A522" s="4">
         <v>1814</v>
       </c>
@@ -12232,7 +12231,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="523" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="523" s="2" customFormat="1" spans="1:6">
       <c r="A523" s="4">
         <v>2166</v>
       </c>
@@ -12252,7 +12251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="524" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="524" s="2" customFormat="1" spans="1:6">
       <c r="A524" s="4">
         <v>2191</v>
       </c>
@@ -12272,7 +12271,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="525" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="525" s="2" customFormat="1" spans="1:6">
       <c r="A525" s="4">
         <v>2593</v>
       </c>
@@ -12290,7 +12289,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="526" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="526" s="2" customFormat="1" spans="1:6">
       <c r="A526" s="4">
         <v>3085</v>
       </c>
@@ -12308,7 +12307,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="527" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="527" s="2" customFormat="1" spans="1:6">
       <c r="A527" s="4">
         <v>1702</v>
       </c>
@@ -12326,7 +12325,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="528" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="528" s="2" customFormat="1" spans="1:6">
       <c r="A528" s="4">
         <v>1780</v>
       </c>
@@ -12344,7 +12343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="529" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="529" s="2" customFormat="1" spans="1:6">
       <c r="A529" s="4">
         <v>2068</v>
       </c>
@@ -12362,7 +12361,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="530" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="530" s="2" customFormat="1" spans="1:6">
       <c r="A530" s="4">
         <v>2266</v>
       </c>
@@ -12382,7 +12381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="531" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="531" s="2" customFormat="1" spans="1:6">
       <c r="A531" s="4">
         <v>2853</v>
       </c>
@@ -12400,7 +12399,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="532" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="532" s="2" customFormat="1" spans="1:6">
       <c r="A532" s="4">
         <v>2992</v>
       </c>
@@ -12418,7 +12417,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="533" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="533" s="2" customFormat="1" spans="1:6">
       <c r="A533" s="4">
         <v>1372</v>
       </c>
@@ -12436,7 +12435,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="534" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="534" s="2" customFormat="1" spans="1:6">
       <c r="A534" s="4">
         <v>1564</v>
       </c>
@@ -12456,7 +12455,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="535" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="535" s="2" customFormat="1" spans="1:6">
       <c r="A535" s="4">
         <v>1854</v>
       </c>
@@ -12476,7 +12475,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="536" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="536" s="2" customFormat="1" spans="1:6">
       <c r="A536" s="4">
         <v>1897</v>
       </c>
@@ -12496,7 +12495,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="537" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="537" s="2" customFormat="1" spans="1:6">
       <c r="A537" s="4">
         <v>2321</v>
       </c>
@@ -12514,7 +12513,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="538" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="538" s="2" customFormat="1" spans="1:6">
       <c r="A538" s="4">
         <v>3034</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="539" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="539" s="2" customFormat="1" spans="1:6">
       <c r="A539" s="4">
         <v>3132</v>
       </c>
@@ -12552,7 +12551,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="540" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="540" s="2" customFormat="1" spans="1:6">
       <c r="A540" s="4">
         <v>1358</v>
       </c>
@@ -12570,7 +12569,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="541" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="541" s="2" customFormat="1" spans="1:6">
       <c r="A541" s="4">
         <v>1502</v>
       </c>
@@ -12590,7 +12589,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="542" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="542" s="2" customFormat="1" spans="1:6">
       <c r="A542" s="4">
         <v>1710</v>
       </c>
@@ -12610,7 +12609,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="543" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="543" s="2" customFormat="1" spans="1:6">
       <c r="A543" s="4">
         <v>2221</v>
       </c>
@@ -12630,7 +12629,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="544" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="544" s="2" customFormat="1" spans="1:6">
       <c r="A544" s="4">
         <v>2605</v>
       </c>
@@ -12650,7 +12649,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="545" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="545" s="2" customFormat="1" spans="1:6">
       <c r="A545" s="4">
         <v>2610</v>
       </c>
@@ -12668,7 +12667,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="546" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="546" s="2" customFormat="1" spans="1:6">
       <c r="A546" s="4">
         <v>3026</v>
       </c>
@@ -12686,7 +12685,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="547" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="547" s="2" customFormat="1" spans="1:6">
       <c r="A547" s="4">
         <v>3109</v>
       </c>
@@ -12706,7 +12705,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="548" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="548" s="2" customFormat="1" spans="1:6">
       <c r="A548" s="4">
         <v>1552</v>
       </c>
@@ -12726,7 +12725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="549" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="549" s="2" customFormat="1" spans="1:6">
       <c r="A549" s="4">
         <v>1687</v>
       </c>
@@ -12746,7 +12745,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="550" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="550" s="2" customFormat="1" spans="1:6">
       <c r="A550" s="4">
         <v>1979</v>
       </c>
@@ -12764,7 +12763,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="551" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="551" s="2" customFormat="1" spans="1:6">
       <c r="A551" s="4">
         <v>2083</v>
       </c>
@@ -12782,7 +12781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="552" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="552" s="2" customFormat="1" spans="1:6">
       <c r="A552" s="4">
         <v>2159</v>
       </c>
@@ -12800,7 +12799,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="553" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="553" s="2" customFormat="1" spans="1:6">
       <c r="A553" s="4">
         <v>2244</v>
       </c>
@@ -12820,7 +12819,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="554" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="554" s="2" customFormat="1" spans="1:6">
       <c r="A554" s="4">
         <v>2306</v>
       </c>
@@ -12838,7 +12837,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="555" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="555" s="2" customFormat="1" spans="1:6">
       <c r="A555" s="4">
         <v>2462</v>
       </c>
@@ -12856,7 +12855,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="556" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="556" s="2" customFormat="1" spans="1:6">
       <c r="A556" s="4">
         <v>1394</v>
       </c>
@@ -12874,7 +12873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="557" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="557" s="2" customFormat="1" spans="1:6">
       <c r="A557" s="4">
         <v>1418</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="558" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="558" s="2" customFormat="1" spans="1:6">
       <c r="A558" s="4">
         <v>1478</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="559" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="559" s="2" customFormat="1" spans="1:6">
       <c r="A559" s="4">
         <v>1615</v>
       </c>
@@ -12930,7 +12929,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="560" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="560" s="2" customFormat="1" spans="1:6">
       <c r="A560" s="4">
         <v>1634</v>
       </c>
@@ -12948,7 +12947,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="561" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="561" s="2" customFormat="1" spans="1:6">
       <c r="A561" s="4">
         <v>1878</v>
       </c>
@@ -12966,7 +12965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="562" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="562" s="2" customFormat="1" spans="1:6">
       <c r="A562" s="4">
         <v>2560</v>
       </c>
@@ -12984,7 +12983,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="563" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="563" s="2" customFormat="1" spans="1:6">
       <c r="A563" s="4">
         <v>2938</v>
       </c>
@@ -13004,7 +13003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="564" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="564" s="2" customFormat="1" spans="1:6">
       <c r="A564" s="4">
         <v>1472</v>
       </c>
@@ -13024,7 +13023,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="565" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="565" s="2" customFormat="1" spans="1:6">
       <c r="A565" s="4">
         <v>1644</v>
       </c>
@@ -13044,7 +13043,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="566" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="566" s="2" customFormat="1" spans="1:6">
       <c r="A566" s="4">
         <v>1712</v>
       </c>
@@ -13064,7 +13063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="567" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="567" s="2" customFormat="1" spans="1:6">
       <c r="A567" s="4">
         <v>1736</v>
       </c>
@@ -13084,7 +13083,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="568" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="568" s="2" customFormat="1" spans="1:6">
       <c r="A568" s="4">
         <v>1783</v>
       </c>
@@ -13104,7 +13103,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="569" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="569" s="2" customFormat="1" spans="1:6">
       <c r="A569" s="4">
         <v>1906</v>
       </c>
@@ -13122,7 +13121,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="570" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="570" s="2" customFormat="1" spans="1:6">
       <c r="A570" s="4">
         <v>2115</v>
       </c>
@@ -13140,7 +13139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="571" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="571" s="2" customFormat="1" spans="1:6">
       <c r="A571" s="4">
         <v>2192</v>
       </c>
@@ -13160,7 +13159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="572" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="572" s="2" customFormat="1" spans="1:6">
       <c r="A572" s="4">
         <v>2409</v>
       </c>
@@ -13180,7 +13179,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="573" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="573" s="2" customFormat="1" spans="1:6">
       <c r="A573" s="4">
         <v>2457</v>
       </c>
@@ -13200,7 +13199,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="574" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="574" s="2" customFormat="1" spans="1:6">
       <c r="A574" s="4">
         <v>2576</v>
       </c>
@@ -13220,7 +13219,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="575" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="575" s="2" customFormat="1" spans="1:6">
       <c r="A575" s="4">
         <v>2626</v>
       </c>
@@ -13238,7 +13237,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="576" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="576" s="2" customFormat="1" spans="1:6">
       <c r="A576" s="4">
         <v>3088</v>
       </c>
@@ -13258,7 +13257,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="577" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="577" s="2" customFormat="1" spans="1:6">
       <c r="A577" s="4">
         <v>3154</v>
       </c>
@@ -13276,7 +13275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="578" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="578" s="2" customFormat="1" spans="1:6">
       <c r="A578" s="4">
         <v>1331</v>
       </c>
@@ -13296,7 +13295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="579" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="579" s="2" customFormat="1" spans="1:6">
       <c r="A579" s="4">
         <v>1382</v>
       </c>
@@ -13316,7 +13315,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="580" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="580" s="2" customFormat="1" spans="1:6">
       <c r="A580" s="4">
         <v>1392</v>
       </c>
@@ -13334,7 +13333,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="581" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="581" s="2" customFormat="1" spans="1:6">
       <c r="A581" s="4">
         <v>1560</v>
       </c>
@@ -13354,7 +13353,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="582" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="582" s="2" customFormat="1" spans="1:6">
       <c r="A582" s="4">
         <v>1601</v>
       </c>
@@ -13374,7 +13373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="583" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="583" s="2" customFormat="1" spans="1:6">
       <c r="A583" s="4">
         <v>2039</v>
       </c>
@@ -13394,7 +13393,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="584" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="584" s="2" customFormat="1" spans="1:6">
       <c r="A584" s="4">
         <v>2078</v>
       </c>
@@ -13412,7 +13411,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="585" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="585" s="2" customFormat="1" spans="1:6">
       <c r="A585" s="4">
         <v>2203</v>
       </c>
@@ -13432,7 +13431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="586" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="586" s="2" customFormat="1" spans="1:6">
       <c r="A586" s="4">
         <v>3106</v>
       </c>
@@ -13450,7 +13449,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="587" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="587" s="2" customFormat="1" spans="1:6">
       <c r="A587" s="4">
         <v>3113</v>
       </c>
@@ -13470,7 +13469,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="588" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="588" s="2" customFormat="1" spans="1:6">
       <c r="A588" s="4">
         <v>1351</v>
       </c>
@@ -13490,7 +13489,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="589" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="589" s="2" customFormat="1" spans="1:6">
       <c r="A589" s="4">
         <v>1361</v>
       </c>
@@ -13508,7 +13507,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="590" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="590" s="2" customFormat="1" spans="1:6">
       <c r="A590" s="4">
         <v>1481</v>
       </c>
@@ -13526,7 +13525,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="591" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="591" s="2" customFormat="1" spans="1:6">
       <c r="A591" s="4">
         <v>1650</v>
       </c>
@@ -13544,7 +13543,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="592" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="592" s="2" customFormat="1" spans="1:6">
       <c r="A592" s="4">
         <v>1806</v>
       </c>
@@ -13562,7 +13561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="593" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="593" s="2" customFormat="1" spans="1:6">
       <c r="A593" s="4">
         <v>1810</v>
       </c>
@@ -13580,7 +13579,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="594" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="594" s="2" customFormat="1" spans="1:6">
       <c r="A594" s="4">
         <v>1828</v>
       </c>
@@ -13600,7 +13599,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="595" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="595" s="2" customFormat="1" spans="1:6">
       <c r="A595" s="4">
         <v>1871</v>
       </c>
@@ -13620,7 +13619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="596" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="596" s="2" customFormat="1" spans="1:6">
       <c r="A596" s="4">
         <v>2308</v>
       </c>
@@ -13638,7 +13637,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="597" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="597" s="2" customFormat="1" spans="1:6">
       <c r="A597" s="4">
         <v>2930</v>
       </c>
@@ -13656,7 +13655,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="598" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="598" s="2" customFormat="1" spans="1:6">
       <c r="A598" s="4">
         <v>3104</v>
       </c>
@@ -13676,7 +13675,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="599" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="599" s="2" customFormat="1" spans="1:6">
       <c r="A599" s="4">
         <v>1374</v>
       </c>
@@ -13696,7 +13695,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="600" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="600" s="2" customFormat="1" spans="1:6">
       <c r="A600" s="4">
         <v>1623</v>
       </c>
@@ -13716,7 +13715,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="601" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="601" s="2" customFormat="1" spans="1:6">
       <c r="A601" s="4">
         <v>1665</v>
       </c>
@@ -13734,7 +13733,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="602" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="602" s="2" customFormat="1" spans="1:6">
       <c r="A602" s="4">
         <v>1681</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="603" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="603" s="2" customFormat="1" spans="1:6">
       <c r="A603" s="4">
         <v>1838</v>
       </c>
@@ -13770,7 +13769,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="604" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="604" s="2" customFormat="1" spans="1:6">
       <c r="A604" s="4">
         <v>2417</v>
       </c>
@@ -13788,7 +13787,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="605" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="605" s="2" customFormat="1" spans="1:6">
       <c r="A605" s="4">
         <v>1507</v>
       </c>
@@ -13808,7 +13807,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="606" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="606" s="2" customFormat="1" spans="1:6">
       <c r="A606" s="4">
         <v>1708</v>
       </c>
@@ -13828,7 +13827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="607" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="607" s="2" customFormat="1" spans="1:6">
       <c r="A607" s="4">
         <v>1911</v>
       </c>
@@ -13848,7 +13847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="608" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="608" s="2" customFormat="1" spans="1:6">
       <c r="A608" s="4">
         <v>2134</v>
       </c>
@@ -13866,7 +13865,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="609" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="609" s="2" customFormat="1" spans="1:6">
       <c r="A609" s="4">
         <v>2142</v>
       </c>
@@ -13884,7 +13883,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="610" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="610" s="2" customFormat="1" spans="1:6">
       <c r="A610" s="4">
         <v>2245</v>
       </c>
@@ -13904,7 +13903,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="611" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="611" s="2" customFormat="1" spans="1:6">
       <c r="A611" s="4">
         <v>2373</v>
       </c>
@@ -13922,7 +13921,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="612" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="612" s="2" customFormat="1" spans="1:6">
       <c r="A612" s="4">
         <v>2982</v>
       </c>
@@ -13942,7 +13941,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="613" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="613" s="2" customFormat="1" spans="1:6">
       <c r="A613" s="4">
         <v>1316</v>
       </c>
@@ -13962,7 +13961,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="614" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="614" s="2" customFormat="1" spans="1:6">
       <c r="A614" s="4">
         <v>1393</v>
       </c>
@@ -13982,7 +13981,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="615" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="615" s="2" customFormat="1" spans="1:6">
       <c r="A615" s="4">
         <v>1468</v>
       </c>
@@ -14002,7 +14001,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="616" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="616" s="2" customFormat="1" spans="1:6">
       <c r="A616" s="4">
         <v>1473</v>
       </c>
@@ -14020,7 +14019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="617" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="617" s="2" customFormat="1" spans="1:6">
       <c r="A617" s="4">
         <v>1968</v>
       </c>
@@ -14038,7 +14037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="618" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="618" s="2" customFormat="1" spans="1:6">
       <c r="A618" s="4">
         <v>2510</v>
       </c>
@@ -14056,7 +14055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="619" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="619" s="2" customFormat="1" spans="1:6">
       <c r="A619" s="4">
         <v>2596</v>
       </c>
@@ -14074,7 +14073,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="620" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="620" s="2" customFormat="1" spans="1:6">
       <c r="A620" s="4">
         <v>2636</v>
       </c>
@@ -14094,7 +14093,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="621" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="621" s="2" customFormat="1" spans="1:6">
       <c r="A621" s="4">
         <v>3099</v>
       </c>
@@ -14112,7 +14111,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="622" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="622" s="2" customFormat="1" spans="1:6">
       <c r="A622" s="4">
         <v>3121</v>
       </c>
@@ -14130,7 +14129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="623" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="623" s="2" customFormat="1" spans="1:6">
       <c r="A623" s="4">
         <v>1353</v>
       </c>
@@ -14150,7 +14149,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="624" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="624" s="2" customFormat="1" spans="1:6">
       <c r="A624" s="4">
         <v>1448</v>
       </c>
@@ -14170,7 +14169,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="625" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="625" s="2" customFormat="1" spans="1:6">
       <c r="A625" s="4">
         <v>1482</v>
       </c>
@@ -14190,7 +14189,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="626" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="626" s="2" customFormat="1" spans="1:6">
       <c r="A626" s="4">
         <v>1981</v>
       </c>
@@ -14210,7 +14209,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="627" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="627" s="2" customFormat="1" spans="1:6">
       <c r="A627" s="4">
         <v>2057</v>
       </c>
@@ -14230,7 +14229,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="628" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="628" s="2" customFormat="1" spans="1:6">
       <c r="A628" s="4">
         <v>2145</v>
       </c>
@@ -14248,7 +14247,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="629" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="629" s="2" customFormat="1" spans="1:6">
       <c r="A629" s="4">
         <v>2168</v>
       </c>
@@ -14268,7 +14267,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="630" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="630" s="2" customFormat="1" spans="1:6">
       <c r="A630" s="4">
         <v>2342</v>
       </c>
@@ -14286,7 +14285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="631" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="631" s="2" customFormat="1" spans="1:6">
       <c r="A631" s="4">
         <v>2375</v>
       </c>
@@ -14304,7 +14303,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="632" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="632" s="2" customFormat="1" spans="1:6">
       <c r="A632" s="4">
         <v>2561</v>
       </c>
@@ -14322,7 +14321,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="633" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="633" s="2" customFormat="1" spans="1:6">
       <c r="A633" s="4">
         <v>3047</v>
       </c>
@@ -14340,7 +14339,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="634" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="634" s="2" customFormat="1" spans="1:6">
       <c r="A634" s="4">
         <v>3076</v>
       </c>
@@ -14358,7 +14357,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="635" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="635" s="2" customFormat="1" spans="1:6">
       <c r="A635" s="4">
         <v>3159</v>
       </c>
@@ -14376,7 +14375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="636" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="636" s="2" customFormat="1" spans="1:6">
       <c r="A636" s="4">
         <v>1304</v>
       </c>
@@ -14396,7 +14395,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="637" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="637" s="2" customFormat="1" spans="1:6">
       <c r="A637" s="4">
         <v>1506</v>
       </c>
@@ -14416,7 +14415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="638" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="638" s="2" customFormat="1" spans="1:6">
       <c r="A638" s="4">
         <v>1561</v>
       </c>
@@ -14436,7 +14435,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="639" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="639" s="2" customFormat="1" spans="1:6">
       <c r="A639" s="4">
         <v>1748</v>
       </c>
@@ -14456,7 +14455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="640" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="640" s="2" customFormat="1" spans="1:6">
       <c r="A640" s="4">
         <v>1807</v>
       </c>
@@ -14474,7 +14473,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="641" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="641" s="2" customFormat="1" spans="1:6">
       <c r="A641" s="4">
         <v>1966</v>
       </c>
@@ -14494,7 +14493,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="642" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="642" s="2" customFormat="1" spans="1:6">
       <c r="A642" s="4">
         <v>2128</v>
       </c>
@@ -14514,7 +14513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="643" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="643" s="2" customFormat="1" spans="1:6">
       <c r="A643" s="4">
         <v>2150</v>
       </c>
@@ -14532,7 +14531,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="644" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="644" s="2" customFormat="1" spans="1:6">
       <c r="A644" s="4">
         <v>2234</v>
       </c>
@@ -14550,7 +14549,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="645" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="645" s="2" customFormat="1" spans="1:6">
       <c r="A645" s="4">
         <v>2287</v>
       </c>
@@ -14570,7 +14569,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="646" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="646" s="2" customFormat="1" spans="1:6">
       <c r="A646" s="4">
         <v>2303</v>
       </c>
@@ -14590,7 +14589,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="647" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="647" s="2" customFormat="1" spans="1:6">
       <c r="A647" s="4">
         <v>2455</v>
       </c>
@@ -14610,7 +14609,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="648" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="648" s="2" customFormat="1" spans="1:6">
       <c r="A648" s="4">
         <v>2543</v>
       </c>
@@ -14628,7 +14627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="649" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="649" s="2" customFormat="1" spans="1:6">
       <c r="A649" s="4">
         <v>2611</v>
       </c>
@@ -14646,7 +14645,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="650" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="650" s="2" customFormat="1" spans="1:6">
       <c r="A650" s="4">
         <v>3024</v>
       </c>
@@ -14666,7 +14665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="651" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="651" s="2" customFormat="1" spans="1:6">
       <c r="A651" s="4">
         <v>3135</v>
       </c>
@@ -14686,7 +14685,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="652" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="652" s="2" customFormat="1" spans="1:6">
       <c r="A652" s="4">
         <v>1415</v>
       </c>
@@ -14706,7 +14705,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="653" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="653" s="2" customFormat="1" spans="1:6">
       <c r="A653" s="4">
         <v>1516</v>
       </c>
@@ -14726,7 +14725,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="654" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="654" s="2" customFormat="1" spans="1:6">
       <c r="A654" s="4">
         <v>1557</v>
       </c>
@@ -14744,7 +14743,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="655" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="655" s="2" customFormat="1" spans="1:6">
       <c r="A655" s="4">
         <v>1616</v>
       </c>
@@ -14762,7 +14761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="656" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="656" s="2" customFormat="1" spans="1:6">
       <c r="A656" s="4">
         <v>1836</v>
       </c>
@@ -14780,7 +14779,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="657" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="657" s="2" customFormat="1" spans="1:6">
       <c r="A657" s="4">
         <v>1844</v>
       </c>
@@ -14798,7 +14797,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="658" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="658" s="2" customFormat="1" spans="1:6">
       <c r="A658" s="4">
         <v>1894</v>
       </c>
@@ -14818,7 +14817,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="659" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="659" s="2" customFormat="1" spans="1:6">
       <c r="A659" s="4">
         <v>2119</v>
       </c>
@@ -14836,7 +14835,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="660" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="660" s="2" customFormat="1" spans="1:6">
       <c r="A660" s="4">
         <v>2202</v>
       </c>
@@ -14856,7 +14855,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="661" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="661" s="2" customFormat="1" spans="1:6">
       <c r="A661" s="4">
         <v>2228</v>
       </c>
@@ -14874,7 +14873,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="662" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="662" s="2" customFormat="1" spans="1:6">
       <c r="A662" s="4">
         <v>2432</v>
       </c>
@@ -14894,7 +14893,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="663" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="663" s="2" customFormat="1" spans="1:6">
       <c r="A663" s="4">
         <v>2484</v>
       </c>
@@ -14914,7 +14913,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="664" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="664" s="2" customFormat="1" spans="1:6">
       <c r="A664" s="4">
         <v>2692</v>
       </c>
@@ -14934,7 +14933,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="665" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="665" s="2" customFormat="1" spans="1:6">
       <c r="A665" s="4">
         <v>3049</v>
       </c>
@@ -14952,7 +14951,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="666" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="666" s="2" customFormat="1" spans="1:6">
       <c r="A666" s="4">
         <v>3136</v>
       </c>
@@ -14970,7 +14969,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="667" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="667" s="2" customFormat="1" spans="1:6">
       <c r="A667" s="4">
         <v>1260</v>
       </c>
@@ -14988,7 +14987,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="668" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="668" s="2" customFormat="1" spans="1:6">
       <c r="A668" s="4">
         <v>1559</v>
       </c>
@@ -15006,7 +15005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="669" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="669" s="2" customFormat="1" spans="1:6">
       <c r="A669" s="4">
         <v>1568</v>
       </c>
@@ -15026,7 +15025,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="670" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="670" s="2" customFormat="1" spans="1:6">
       <c r="A670" s="4">
         <v>1759</v>
       </c>
@@ -15046,7 +15045,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="671" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="671" s="2" customFormat="1" spans="1:6">
       <c r="A671" s="4">
         <v>1877</v>
       </c>
@@ -15066,7 +15065,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="672" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="672" s="2" customFormat="1" spans="1:6">
       <c r="A672" s="4">
         <v>1964</v>
       </c>
@@ -15086,7 +15085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="673" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="673" s="2" customFormat="1" spans="1:6">
       <c r="A673" s="4">
         <v>2125</v>
       </c>
@@ -15106,7 +15105,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="674" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="674" s="2" customFormat="1" spans="1:6">
       <c r="A674" s="4">
         <v>2210</v>
       </c>
@@ -15126,7 +15125,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="675" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="675" s="2" customFormat="1" spans="1:6">
       <c r="A675" s="4">
         <v>2364</v>
       </c>
@@ -15144,7 +15143,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="676" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="676" s="2" customFormat="1" spans="1:6">
       <c r="A676" s="4">
         <v>2403</v>
       </c>
@@ -15164,7 +15163,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="677" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="677" s="2" customFormat="1" spans="1:6">
       <c r="A677" s="4">
         <v>2508</v>
       </c>
@@ -15184,7 +15183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="678" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="678" s="2" customFormat="1" spans="1:6">
       <c r="A678" s="4">
         <v>1385</v>
       </c>
@@ -15204,7 +15203,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="679" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="679" s="2" customFormat="1" spans="1:6">
       <c r="A679" s="4">
         <v>1433</v>
       </c>
@@ -15224,7 +15223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="680" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="680" s="2" customFormat="1" spans="1:6">
       <c r="A680" s="4">
         <v>1469</v>
       </c>
@@ -15242,7 +15241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="681" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="681" s="2" customFormat="1" spans="1:6">
       <c r="A681" s="4">
         <v>1498</v>
       </c>
@@ -15260,7 +15259,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="682" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="682" s="2" customFormat="1" spans="1:6">
       <c r="A682" s="4">
         <v>1675</v>
       </c>
@@ -15280,7 +15279,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="683" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="683" s="2" customFormat="1" spans="1:6">
       <c r="A683" s="4">
         <v>1686</v>
       </c>
@@ -15300,7 +15299,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="684" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="684" s="2" customFormat="1" spans="1:6">
       <c r="A684" s="4">
         <v>1733</v>
       </c>
@@ -15318,7 +15317,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="685" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="685" s="2" customFormat="1" spans="1:6">
       <c r="A685" s="4">
         <v>2073</v>
       </c>
@@ -15338,7 +15337,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="686" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="686" s="2" customFormat="1" spans="1:6">
       <c r="A686" s="4">
         <v>2269</v>
       </c>
@@ -15356,7 +15355,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="687" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="687" s="2" customFormat="1" spans="1:6">
       <c r="A687" s="4">
         <v>2524</v>
       </c>
@@ -15376,7 +15375,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="688" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="688" s="2" customFormat="1" spans="1:6">
       <c r="A688" s="4">
         <v>3091</v>
       </c>
@@ -15394,7 +15393,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="689" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="689" s="2" customFormat="1" spans="1:6">
       <c r="A689" s="4">
         <v>1409</v>
       </c>
@@ -15414,7 +15413,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="690" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="690" s="2" customFormat="1" spans="1:6">
       <c r="A690" s="4">
         <v>1512</v>
       </c>
@@ -15434,7 +15433,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="691" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="691" s="2" customFormat="1" spans="1:6">
       <c r="A691" s="4">
         <v>1517</v>
       </c>
@@ -15454,7 +15453,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="692" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="692" s="2" customFormat="1" spans="1:6">
       <c r="A692" s="4">
         <v>1595</v>
       </c>
@@ -15474,7 +15473,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="693" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="693" s="2" customFormat="1" spans="1:6">
       <c r="A693" s="4">
         <v>1677</v>
       </c>
@@ -15494,7 +15493,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="694" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="694" s="2" customFormat="1" spans="1:6">
       <c r="A694" s="4">
         <v>1869</v>
       </c>
@@ -15514,7 +15513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="695" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="695" s="2" customFormat="1" spans="1:6">
       <c r="A695" s="4">
         <v>2031</v>
       </c>
@@ -15534,7 +15533,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="696" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="696" s="2" customFormat="1" spans="1:6">
       <c r="A696" s="4">
         <v>2298</v>
       </c>
@@ -15552,7 +15551,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="697" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="697" s="2" customFormat="1" spans="1:6">
       <c r="A697" s="4">
         <v>2431</v>
       </c>
@@ -15570,7 +15569,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="698" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="698" s="2" customFormat="1" spans="1:6">
       <c r="A698" s="4">
         <v>3043</v>
       </c>
@@ -15588,7 +15587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="699" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="699" s="2" customFormat="1" spans="1:6">
       <c r="A699" s="4">
         <v>3086</v>
       </c>
@@ -15608,7 +15607,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="700" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="700" s="2" customFormat="1" spans="1:6">
       <c r="A700" s="4">
         <v>3143</v>
       </c>
@@ -15628,7 +15627,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="701" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="701" s="2" customFormat="1" spans="1:6">
       <c r="A701" s="4">
         <v>3148</v>
       </c>
@@ -15648,7 +15647,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="702" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="702" s="2" customFormat="1" spans="1:6">
       <c r="A702" s="4">
         <v>1632</v>
       </c>
@@ -15668,7 +15667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="703" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="703" s="2" customFormat="1" spans="1:6">
       <c r="A703" s="4">
         <v>1786</v>
       </c>
@@ -15686,7 +15685,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="704" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="704" s="2" customFormat="1" spans="1:6">
       <c r="A704" s="4">
         <v>1867</v>
       </c>
@@ -15706,7 +15705,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="705" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="705" s="2" customFormat="1" spans="1:6">
       <c r="A705" s="4">
         <v>2016</v>
       </c>
@@ -15726,7 +15725,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="706" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="706" s="2" customFormat="1" spans="1:6">
       <c r="A706" s="4">
         <v>2034</v>
       </c>
@@ -15744,7 +15743,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="707" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="707" s="2" customFormat="1" spans="1:6">
       <c r="A707" s="4">
         <v>2044</v>
       </c>
@@ -15764,7 +15763,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="708" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="708" s="2" customFormat="1" spans="1:6">
       <c r="A708" s="4">
         <v>2061</v>
       </c>
@@ -15782,7 +15781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="709" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="709" s="2" customFormat="1" spans="1:6">
       <c r="A709" s="4">
         <v>2182</v>
       </c>
@@ -15800,7 +15799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="710" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="710" s="2" customFormat="1" spans="1:6">
       <c r="A710" s="4">
         <v>2183</v>
       </c>
@@ -15818,7 +15817,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="711" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="711" s="2" customFormat="1" spans="1:6">
       <c r="A711" s="4">
         <v>2628</v>
       </c>
@@ -15836,7 +15835,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="712" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="712" s="2" customFormat="1" spans="1:6">
       <c r="A712" s="4">
         <v>2688</v>
       </c>
@@ -15854,7 +15853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="713" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="713" s="2" customFormat="1" spans="1:6">
       <c r="A713" s="4">
         <v>3149</v>
       </c>
@@ -15874,7 +15873,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="714" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="714" s="2" customFormat="1" spans="1:6">
       <c r="A714" s="4">
         <v>1328</v>
       </c>
@@ -15894,7 +15893,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="715" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="715" s="2" customFormat="1" spans="1:6">
       <c r="A715" s="4">
         <v>1362</v>
       </c>
@@ -15912,7 +15911,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="716" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="716" s="2" customFormat="1" spans="1:6">
       <c r="A716" s="4">
         <v>1495</v>
       </c>
@@ -15930,7 +15929,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="717" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="717" s="2" customFormat="1" spans="1:6">
       <c r="A717" s="4">
         <v>1645</v>
       </c>
@@ -15950,7 +15949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="718" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="718" s="2" customFormat="1" spans="1:6">
       <c r="A718" s="4">
         <v>2116</v>
       </c>
@@ -15970,7 +15969,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="719" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="719" s="2" customFormat="1" spans="1:6">
       <c r="A719" s="4">
         <v>2117</v>
       </c>
@@ -15988,7 +15987,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="720" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="720" s="2" customFormat="1" spans="1:6">
       <c r="A720" s="4">
         <v>2169</v>
       </c>
@@ -16006,7 +16005,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="721" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="721" s="2" customFormat="1" spans="1:6">
       <c r="A721" s="4">
         <v>2214</v>
       </c>
@@ -16026,7 +16025,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="722" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="722" s="2" customFormat="1" spans="1:6">
       <c r="A722" s="4">
         <v>2215</v>
       </c>
@@ -16044,7 +16043,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="723" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="723" s="2" customFormat="1" spans="1:6">
       <c r="A723" s="4">
         <v>2309</v>
       </c>
@@ -16064,7 +16063,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="724" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="724" s="2" customFormat="1" spans="1:6">
       <c r="A724" s="4">
         <v>2322</v>
       </c>
@@ -16082,7 +16081,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="725" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="725" s="2" customFormat="1" spans="1:6">
       <c r="A725" s="4">
         <v>2487</v>
       </c>
@@ -16100,7 +16099,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="726" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="726" s="2" customFormat="1" spans="1:6">
       <c r="A726" s="4">
         <v>1339</v>
       </c>
@@ -16120,7 +16119,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="727" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="727" s="2" customFormat="1" spans="1:6">
       <c r="A727" s="4">
         <v>1874</v>
       </c>
@@ -16140,7 +16139,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="728" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="728" s="2" customFormat="1" spans="1:6">
       <c r="A728" s="4">
         <v>2156</v>
       </c>
@@ -16158,7 +16157,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="729" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="729" s="2" customFormat="1" spans="1:6">
       <c r="A729" s="4">
         <v>2248</v>
       </c>
@@ -16178,7 +16177,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="730" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="730" s="2" customFormat="1" spans="1:6">
       <c r="A730" s="4">
         <v>3074</v>
       </c>
@@ -16196,7 +16195,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="731" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="731" s="2" customFormat="1" spans="1:6">
       <c r="A731" s="4">
         <v>3141</v>
       </c>
@@ -16214,7 +16213,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="732" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="732" s="2" customFormat="1" spans="1:6">
       <c r="A732" s="4">
         <v>1474</v>
       </c>
@@ -16234,7 +16233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="733" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="733" s="2" customFormat="1" spans="1:6">
       <c r="A733" s="4">
         <v>1638</v>
       </c>
@@ -16254,7 +16253,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="734" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="734" s="2" customFormat="1" spans="1:6">
       <c r="A734" s="4">
         <v>2074</v>
       </c>
@@ -16272,7 +16271,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="735" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="735" s="2" customFormat="1" spans="1:6">
       <c r="A735" s="4">
         <v>2867</v>
       </c>
@@ -16292,7 +16291,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="736" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="736" s="2" customFormat="1" spans="1:6">
       <c r="A736" s="4">
         <v>3096</v>
       </c>
@@ -16310,7 +16309,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="737" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="737" s="2" customFormat="1" spans="1:6">
       <c r="A737" s="4">
         <v>1325</v>
       </c>
@@ -16330,7 +16329,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="738" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="738" s="2" customFormat="1" spans="1:6">
       <c r="A738" s="4">
         <v>1340</v>
       </c>
@@ -16348,7 +16347,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="739" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="739" s="2" customFormat="1" spans="1:6">
       <c r="A739" s="4">
         <v>1813</v>
       </c>
@@ -16366,7 +16365,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="740" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="740" s="2" customFormat="1" spans="1:6">
       <c r="A740" s="4">
         <v>1853</v>
       </c>
@@ -16386,7 +16385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="741" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="741" s="2" customFormat="1" spans="1:6">
       <c r="A741" s="4">
         <v>2989</v>
       </c>
@@ -16406,7 +16405,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="742" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="742" s="2" customFormat="1" spans="1:6">
       <c r="A742" s="4">
         <v>3031</v>
       </c>
@@ -16424,7 +16423,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="743" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="743" s="2" customFormat="1" spans="1:6">
       <c r="A743" s="4">
         <v>3097</v>
       </c>
@@ -16442,7 +16441,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="744" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="744" s="2" customFormat="1" spans="1:6">
       <c r="A744" s="4">
         <v>3120</v>
       </c>
@@ -16460,7 +16459,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="745" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="745" s="2" customFormat="1" spans="1:6">
       <c r="A745" s="4">
         <v>1419</v>
       </c>
@@ -16480,7 +16479,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="746" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="746" s="2" customFormat="1" spans="1:6">
       <c r="A746" s="4">
         <v>1500</v>
       </c>
@@ -16498,7 +16497,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="747" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="747" s="2" customFormat="1" spans="1:6">
       <c r="A747" s="4">
         <v>1541</v>
       </c>
@@ -16516,7 +16515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="748" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="748" s="2" customFormat="1" spans="1:6">
       <c r="A748" s="4">
         <v>1574</v>
       </c>
@@ -16534,7 +16533,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="749" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="749" s="2" customFormat="1" spans="1:6">
       <c r="A749" s="4">
         <v>1640</v>
       </c>
@@ -16552,7 +16551,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="750" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="750" s="2" customFormat="1" spans="1:6">
       <c r="A750" s="4">
         <v>1722</v>
       </c>
@@ -16572,7 +16571,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="751" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="751" s="2" customFormat="1" spans="1:6">
       <c r="A751" s="4">
         <v>1839</v>
       </c>
@@ -16592,7 +16591,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="752" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="752" s="2" customFormat="1" spans="1:6">
       <c r="A752" s="4">
         <v>1967</v>
       </c>
@@ -16610,7 +16609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="753" s="2" customFormat="1" spans="1:6">
       <c r="A753" s="4">
         <v>2419</v>
       </c>
@@ -16628,7 +16627,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="754" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="754" s="2" customFormat="1" spans="1:6">
       <c r="A754" s="4">
         <v>2856</v>
       </c>
@@ -16646,7 +16645,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="755" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="755" s="2" customFormat="1" spans="1:6">
       <c r="A755" s="4">
         <v>3044</v>
       </c>
@@ -16664,7 +16663,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="756" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="756" s="2" customFormat="1" spans="1:6">
       <c r="A756" s="4">
         <v>3084</v>
       </c>
@@ -16682,7 +16681,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="757" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="757" s="2" customFormat="1" spans="1:6">
       <c r="A757" s="4">
         <v>3131</v>
       </c>
@@ -16700,7 +16699,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="758" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="758" s="2" customFormat="1" spans="1:6">
       <c r="A758" s="4">
         <v>3134</v>
       </c>
@@ -16718,7 +16717,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="759" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="759" s="2" customFormat="1" spans="1:6">
       <c r="A759" s="4">
         <v>3137</v>
       </c>
@@ -16736,7 +16735,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="760" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="760" s="2" customFormat="1" spans="1:6">
       <c r="A760" s="4">
         <v>3139</v>
       </c>
@@ -16754,7 +16753,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="761" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="761" s="2" customFormat="1" spans="1:6">
       <c r="A761" s="4">
         <v>1315</v>
       </c>
@@ -16772,7 +16771,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="762" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="762" s="2" customFormat="1" spans="1:6">
       <c r="A762" s="4">
         <v>1332</v>
       </c>
@@ -16790,7 +16789,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="763" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="763" s="2" customFormat="1" spans="1:6">
       <c r="A763" s="4">
         <v>1366</v>
       </c>
@@ -16810,7 +16809,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="764" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="764" s="2" customFormat="1" spans="1:6">
       <c r="A764" s="4">
         <v>1380</v>
       </c>
@@ -16828,7 +16827,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="765" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="765" s="2" customFormat="1" spans="1:6">
       <c r="A765" s="4">
         <v>1543</v>
       </c>
@@ -16848,7 +16847,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="766" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="766" s="2" customFormat="1" spans="1:6">
       <c r="A766" s="4">
         <v>1590</v>
       </c>
@@ -16868,7 +16867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="767" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="767" s="2" customFormat="1" spans="1:6">
       <c r="A767" s="4">
         <v>2026</v>
       </c>
@@ -16888,7 +16887,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="768" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="768" s="2" customFormat="1" spans="1:6">
       <c r="A768" s="4">
         <v>2029</v>
       </c>
@@ -16906,7 +16905,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="769" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="769" s="2" customFormat="1" spans="1:6">
       <c r="A769" s="4">
         <v>2060</v>
       </c>
@@ -16924,7 +16923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="770" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="770" s="2" customFormat="1" spans="1:6">
       <c r="A770" s="4">
         <v>2325</v>
       </c>
@@ -16942,7 +16941,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="771" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="771" s="2" customFormat="1" spans="1:6">
       <c r="A771" s="4">
         <v>2357</v>
       </c>
@@ -16960,7 +16959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="772" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="772" s="2" customFormat="1" spans="1:6">
       <c r="A772" s="4">
         <v>2412</v>
       </c>
@@ -16980,7 +16979,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="773" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="773" s="2" customFormat="1" spans="1:6">
       <c r="A773" s="4">
         <v>2604</v>
       </c>
@@ -17000,7 +16999,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="774" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="774" s="2" customFormat="1" spans="1:6">
       <c r="A774" s="4">
         <v>2935</v>
       </c>
@@ -17018,7 +17017,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="775" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="775" s="2" customFormat="1" spans="1:6">
       <c r="A775" s="4">
         <v>3060</v>
       </c>
@@ -17038,7 +17037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="776" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="776" s="2" customFormat="1" spans="1:6">
       <c r="A776" s="4">
         <v>1387</v>
       </c>
@@ -17058,7 +17057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="777" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="777" s="2" customFormat="1" spans="1:6">
       <c r="A777" s="4">
         <v>1544</v>
       </c>
@@ -17078,7 +17077,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="778" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="778" s="2" customFormat="1" spans="1:6">
       <c r="A778" s="4">
         <v>1594</v>
       </c>
@@ -17098,7 +17097,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="779" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="779" s="2" customFormat="1" spans="1:6">
       <c r="A779" s="4">
         <v>2185</v>
       </c>
@@ -17118,7 +17117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="780" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="780" s="2" customFormat="1" spans="1:6">
       <c r="A780" s="4">
         <v>2396</v>
       </c>
@@ -17136,7 +17135,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="781" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="781" s="2" customFormat="1" spans="1:6">
       <c r="A781" s="4">
         <v>2556</v>
       </c>
@@ -17156,7 +17155,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="782" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="782" s="2" customFormat="1" spans="1:6">
       <c r="A782" s="4">
         <v>2855</v>
       </c>
@@ -17174,7 +17173,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="783" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="783" s="2" customFormat="1" spans="1:6">
       <c r="A783" s="4">
         <v>2901</v>
       </c>
@@ -17194,7 +17193,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="784" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="784" s="2" customFormat="1" spans="1:6">
       <c r="A784" s="4">
         <v>2927</v>
       </c>
@@ -17212,7 +17211,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="785" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="785" s="2" customFormat="1" spans="1:6">
       <c r="A785" s="4">
         <v>3062</v>
       </c>
@@ -17232,7 +17231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="786" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="786" s="2" customFormat="1" spans="1:6">
       <c r="A786" s="4">
         <v>1483</v>
       </c>
@@ -17252,7 +17251,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="787" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="787" s="2" customFormat="1" spans="1:6">
       <c r="A787" s="4">
         <v>1642</v>
       </c>
@@ -17270,7 +17269,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="788" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="788" s="2" customFormat="1" spans="1:6">
       <c r="A788" s="4">
         <v>1880</v>
       </c>
@@ -17290,7 +17289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="789" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="789" s="2" customFormat="1" spans="1:6">
       <c r="A789" s="4">
         <v>1976</v>
       </c>
@@ -17310,7 +17309,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="790" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="790" s="2" customFormat="1" spans="1:6">
       <c r="A790" s="4">
         <v>2025</v>
       </c>
@@ -17330,7 +17329,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="791" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="791" s="2" customFormat="1" spans="1:6">
       <c r="A791" s="4">
         <v>2043</v>
       </c>
@@ -17350,7 +17349,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="792" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="792" s="2" customFormat="1" spans="1:6">
       <c r="A792" s="4">
         <v>2090</v>
       </c>
@@ -17368,7 +17367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="793" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="793" s="2" customFormat="1" spans="1:6">
       <c r="A793" s="4">
         <v>2180</v>
       </c>
@@ -17388,7 +17387,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="794" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="794" s="2" customFormat="1" spans="1:6">
       <c r="A794" s="4">
         <v>2253</v>
       </c>
@@ -17408,7 +17407,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="795" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="795" s="2" customFormat="1" spans="1:6">
       <c r="A795" s="4">
         <v>2859</v>
       </c>
@@ -17426,7 +17425,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="796" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="796" s="2" customFormat="1" spans="1:6">
       <c r="A796" s="4">
         <v>2974</v>
       </c>
@@ -17444,7 +17443,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="797" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="797" s="2" customFormat="1" spans="1:6">
       <c r="A797" s="4">
         <v>1373</v>
       </c>
@@ -17464,7 +17463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="798" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="798" s="2" customFormat="1" spans="1:6">
       <c r="A798" s="4">
         <v>1383</v>
       </c>
@@ -17482,7 +17481,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="799" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="799" s="2" customFormat="1" spans="1:6">
       <c r="A799" s="4">
         <v>1599</v>
       </c>
@@ -17502,7 +17501,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="800" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="800" s="2" customFormat="1" spans="1:6">
       <c r="A800" s="4">
         <v>1656</v>
       </c>
@@ -17522,7 +17521,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="801" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="801" s="2" customFormat="1" spans="1:6">
       <c r="A801" s="4">
         <v>2093</v>
       </c>
@@ -17542,7 +17541,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="802" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="802" s="2" customFormat="1" spans="1:6">
       <c r="A802" s="4">
         <v>2246</v>
       </c>
@@ -17562,7 +17561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="803" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="803" s="2" customFormat="1" spans="1:6">
       <c r="A803" s="4">
         <v>2258</v>
       </c>
@@ -17582,7 +17581,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="804" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="804" s="2" customFormat="1" spans="1:6">
       <c r="A804" s="4">
         <v>2324</v>
       </c>
@@ -17602,7 +17601,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="805" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="805" s="2" customFormat="1" spans="1:6">
       <c r="A805" s="4">
         <v>2563</v>
       </c>
@@ -17620,7 +17619,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="806" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="806" s="2" customFormat="1" spans="1:6">
       <c r="A806" s="4">
         <v>3038</v>
       </c>
@@ -17638,7 +17637,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="807" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="807" s="2" customFormat="1" spans="1:6">
       <c r="A807" s="4">
         <v>1364</v>
       </c>
@@ -17656,7 +17655,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="808" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="808" s="2" customFormat="1" spans="1:6">
       <c r="A808" s="4">
         <v>1593</v>
       </c>
@@ -17676,7 +17675,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="809" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="809" s="2" customFormat="1" spans="1:6">
       <c r="A809" s="4">
         <v>1633</v>
       </c>
@@ -17696,7 +17695,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="810" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="810" s="2" customFormat="1" spans="1:6">
       <c r="A810" s="4">
         <v>2318</v>
       </c>
@@ -17714,7 +17713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="811" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="811" s="2" customFormat="1" spans="1:6">
       <c r="A811" s="4">
         <v>2404</v>
       </c>
@@ -17732,7 +17731,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="812" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="812" s="2" customFormat="1" spans="1:6">
       <c r="A812" s="4">
         <v>2481</v>
       </c>
@@ -17750,7 +17749,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="813" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="813" s="2" customFormat="1" spans="1:6">
       <c r="A813" s="4">
         <v>2977</v>
       </c>
@@ -17768,7 +17767,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="814" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="814" s="2" customFormat="1" spans="1:6">
       <c r="A814" s="4">
         <v>1602</v>
       </c>
@@ -17788,7 +17787,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="815" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="815" s="2" customFormat="1" spans="1:6">
       <c r="A815" s="4">
         <v>1653</v>
       </c>
@@ -17806,7 +17805,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="816" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="816" s="2" customFormat="1" spans="1:6">
       <c r="A816" s="4">
         <v>1718</v>
       </c>
@@ -17826,7 +17825,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="817" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="817" s="2" customFormat="1" spans="1:6">
       <c r="A817" s="4">
         <v>1866</v>
       </c>
@@ -17846,7 +17845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="818" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="818" s="2" customFormat="1" spans="1:6">
       <c r="A818" s="4">
         <v>2392</v>
       </c>
@@ -17864,7 +17863,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="819" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="819" s="2" customFormat="1" spans="1:6">
       <c r="A819" s="4">
         <v>2511</v>
       </c>
@@ -17884,7 +17883,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="820" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="820" s="2" customFormat="1" spans="1:6">
       <c r="A820" s="4">
         <v>3039</v>
       </c>
@@ -17902,7 +17901,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="821" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="821" s="2" customFormat="1" spans="1:6">
       <c r="A821" s="4">
         <v>3151</v>
       </c>
@@ -17920,7 +17919,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="822" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="822" s="2" customFormat="1" spans="1:6">
       <c r="A822" s="4">
         <v>1397</v>
       </c>
@@ -17938,7 +17937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="823" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="823" s="2" customFormat="1" spans="1:6">
       <c r="A823" s="4">
         <v>1518</v>
       </c>
@@ -17958,7 +17957,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="824" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="824" s="2" customFormat="1" spans="1:6">
       <c r="A824" s="4">
         <v>1630</v>
       </c>
@@ -17978,7 +17977,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="825" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="825" s="2" customFormat="1" spans="1:6">
       <c r="A825" s="4">
         <v>1670</v>
       </c>
@@ -17998,7 +17997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="826" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="826" s="2" customFormat="1" spans="1:6">
       <c r="A826" s="4">
         <v>1969</v>
       </c>
@@ -18016,7 +18015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="827" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="827" s="2" customFormat="1" spans="1:6">
       <c r="A827" s="4">
         <v>2110</v>
       </c>
@@ -18036,7 +18035,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="828" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="828" s="2" customFormat="1" spans="1:6">
       <c r="A828" s="4">
         <v>2851</v>
       </c>
@@ -18054,7 +18053,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="829" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="829" s="2" customFormat="1" spans="1:6">
       <c r="A829" s="4">
         <v>1421</v>
       </c>
@@ -18074,7 +18073,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="830" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="830" s="2" customFormat="1" spans="1:6">
       <c r="A830" s="4">
         <v>1497</v>
       </c>
@@ -18094,7 +18093,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="831" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="831" s="2" customFormat="1" spans="1:6">
       <c r="A831" s="4">
         <v>1659</v>
       </c>
@@ -18114,7 +18113,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="832" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="832" s="2" customFormat="1" spans="1:6">
       <c r="A832" s="4">
         <v>1777</v>
       </c>
@@ -18134,7 +18133,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="833" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="833" s="2" customFormat="1" spans="1:6">
       <c r="A833" s="4">
         <v>1826</v>
       </c>
@@ -18154,7 +18153,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="834" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="834" s="2" customFormat="1" spans="1:6">
       <c r="A834" s="4">
         <v>2072</v>
       </c>
@@ -18174,7 +18173,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="835" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="835" s="2" customFormat="1" spans="1:6">
       <c r="A835" s="4">
         <v>2201</v>
       </c>
@@ -18192,7 +18191,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="836" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="836" s="2" customFormat="1" spans="1:6">
       <c r="A836" s="4">
         <v>2488</v>
       </c>
@@ -18210,7 +18209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="837" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="837" s="2" customFormat="1" spans="1:6">
       <c r="A837" s="4">
         <v>3053</v>
       </c>
@@ -18230,7 +18229,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="838" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="838" s="2" customFormat="1" spans="1:6">
       <c r="A838" s="4">
         <v>1453</v>
       </c>
@@ -18250,7 +18249,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="839" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="839" s="2" customFormat="1" spans="1:6">
       <c r="A839" s="4">
         <v>1578</v>
       </c>
@@ -18268,7 +18267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="840" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="840" s="2" customFormat="1" spans="1:6">
       <c r="A840" s="4">
         <v>1719</v>
       </c>
@@ -18288,7 +18287,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="841" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="841" s="2" customFormat="1" spans="1:6">
       <c r="A841" s="4">
         <v>1749</v>
       </c>
@@ -18308,7 +18307,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="842" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="842" s="2" customFormat="1" spans="1:6">
       <c r="A842" s="4">
         <v>1913</v>
       </c>
@@ -18328,7 +18327,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="843" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="843" s="2" customFormat="1" spans="1:6">
       <c r="A843" s="4">
         <v>2577</v>
       </c>
@@ -18346,7 +18345,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="844" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="844" s="2" customFormat="1" spans="1:6">
       <c r="A844" s="4">
         <v>2690</v>
       </c>
@@ -18366,7 +18365,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="845" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="845" s="2" customFormat="1" spans="1:6">
       <c r="A845" s="4">
         <v>1466</v>
       </c>
@@ -18386,7 +18385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="846" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="846" s="2" customFormat="1" spans="1:6">
       <c r="A846" s="4">
         <v>1960</v>
       </c>
@@ -18406,7 +18405,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="847" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="847" s="2" customFormat="1" spans="1:6">
       <c r="A847" s="4">
         <v>1984</v>
       </c>
@@ -18424,7 +18423,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="848" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="848" s="2" customFormat="1" spans="1:6">
       <c r="A848" s="4">
         <v>2027</v>
       </c>
@@ -18442,7 +18441,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="849" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="849" s="2" customFormat="1" spans="1:6">
       <c r="A849" s="4">
         <v>2065</v>
       </c>
@@ -18460,7 +18459,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="850" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="850" s="2" customFormat="1" spans="1:6">
       <c r="A850" s="4">
         <v>2222</v>
       </c>
@@ -18480,7 +18479,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="851" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="851" s="2" customFormat="1" spans="1:6">
       <c r="A851" s="4">
         <v>2473</v>
       </c>
@@ -18498,7 +18497,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="852" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="852" s="2" customFormat="1" spans="1:6">
       <c r="A852" s="4">
         <v>2667</v>
       </c>
@@ -18516,7 +18515,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="853" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="853" s="2" customFormat="1" spans="1:6">
       <c r="A853" s="4">
         <v>3028</v>
       </c>
@@ -18534,7 +18533,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="854" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="854" s="2" customFormat="1" spans="1:6">
       <c r="A854" s="4">
         <v>3094</v>
       </c>
@@ -18552,7 +18551,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="855" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="855" s="2" customFormat="1" spans="1:6">
       <c r="A855" s="4">
         <v>3128</v>
       </c>
@@ -18570,7 +18569,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="856" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="856" s="2" customFormat="1" spans="1:6">
       <c r="A856" s="4">
         <v>1420</v>
       </c>
@@ -18590,7 +18589,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="857" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="857" s="2" customFormat="1" spans="1:6">
       <c r="A857" s="4">
         <v>1584</v>
       </c>
@@ -18608,7 +18607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="858" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="858" s="2" customFormat="1" spans="1:6">
       <c r="A858" s="4">
         <v>1726</v>
       </c>
@@ -18626,7 +18625,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="859" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="859" s="2" customFormat="1" spans="1:6">
       <c r="A859" s="4">
         <v>1834</v>
       </c>
@@ -18644,7 +18643,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="860" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="860" s="2" customFormat="1" spans="1:6">
       <c r="A860" s="4">
         <v>2154</v>
       </c>
@@ -18664,7 +18663,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="861" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="861" s="2" customFormat="1" spans="1:6">
       <c r="A861" s="4">
         <v>2336</v>
       </c>
@@ -18684,7 +18683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="862" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="862" s="2" customFormat="1" spans="1:6">
       <c r="A862" s="4">
         <v>2592</v>
       </c>
@@ -18704,7 +18703,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="863" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="863" s="2" customFormat="1" spans="1:6">
       <c r="A863" s="4">
         <v>3090</v>
       </c>
@@ -18724,7 +18723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="864" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="864" s="2" customFormat="1" spans="1:6">
       <c r="A864" s="4">
         <v>1521</v>
       </c>
@@ -18744,7 +18743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="865" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="865" s="2" customFormat="1" spans="1:6">
       <c r="A865" s="4">
         <v>1773</v>
       </c>
@@ -18764,7 +18763,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="866" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="866" s="2" customFormat="1" spans="1:6">
       <c r="A866" s="4">
         <v>1801</v>
       </c>
@@ -18784,7 +18783,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="867" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="867" s="2" customFormat="1" spans="1:6">
       <c r="A867" s="4">
         <v>2225</v>
       </c>
@@ -18804,7 +18803,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="868" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="868" s="2" customFormat="1" spans="1:6">
       <c r="A868" s="4">
         <v>2249</v>
       </c>
@@ -18822,7 +18821,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="869" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="869" s="2" customFormat="1" spans="1:6">
       <c r="A869" s="4">
         <v>2588</v>
       </c>
@@ -18842,7 +18841,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="870" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="870" s="2" customFormat="1" spans="1:6">
       <c r="A870" s="4">
         <v>1309</v>
       </c>
@@ -18860,7 +18859,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="871" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="871" s="2" customFormat="1" spans="1:6">
       <c r="A871" s="4">
         <v>1311</v>
       </c>
@@ -18880,7 +18879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="872" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="872" s="2" customFormat="1" spans="1:6">
       <c r="A872" s="4">
         <v>1396</v>
       </c>
@@ -18900,7 +18899,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="873" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="873" s="2" customFormat="1" spans="1:6">
       <c r="A873" s="4">
         <v>1434</v>
       </c>
@@ -18918,7 +18917,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="874" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="874" s="2" customFormat="1" spans="1:6">
       <c r="A874" s="4">
         <v>1520</v>
       </c>
@@ -18938,7 +18937,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="875" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="875" s="2" customFormat="1" spans="1:6">
       <c r="A875" s="4">
         <v>1587</v>
       </c>
@@ -18956,7 +18955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="876" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="876" s="2" customFormat="1" spans="1:6">
       <c r="A876" s="4">
         <v>1910</v>
       </c>
@@ -18976,7 +18975,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="877" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="877" s="2" customFormat="1" spans="1:6">
       <c r="A877" s="4">
         <v>1832</v>
       </c>
@@ -18996,7 +18995,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="878" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="878" s="2" customFormat="1" spans="1:6">
       <c r="A878" s="4">
         <v>1841</v>
       </c>
@@ -19014,7 +19013,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="879" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="879" s="2" customFormat="1" spans="1:6">
       <c r="A879" s="4">
         <v>1962</v>
       </c>
@@ -19034,7 +19033,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="880" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="880" s="2" customFormat="1" spans="1:6">
       <c r="A880" s="4">
         <v>2036</v>
       </c>
@@ -19054,7 +19053,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="881" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="881" s="2" customFormat="1" spans="1:6">
       <c r="A881" s="4">
         <v>2107</v>
       </c>
@@ -19072,7 +19071,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="882" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="882" s="2" customFormat="1" spans="1:6">
       <c r="A882" s="4">
         <v>2139</v>
       </c>
@@ -19090,7 +19089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="883" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="883" s="2" customFormat="1" spans="1:6">
       <c r="A883" s="4">
         <v>3110</v>
       </c>
@@ -19108,7 +19107,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="884" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="884" s="2" customFormat="1" spans="1:6">
       <c r="A884" s="4">
         <v>1379</v>
       </c>
@@ -19128,7 +19127,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="885" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="885" s="2" customFormat="1" spans="1:6">
       <c r="A885" s="4">
         <v>1435</v>
       </c>
@@ -19148,7 +19147,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="886" s="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="886" s="2" customFormat="1" spans="1:6">
       <c r="A886" s="4">
         <v>1651</v>
       </c>
@@ -19184,7 +19183,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -19201,7 +19200,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
